--- a/source/portal/static/portal/excel/mng_excel_template_base.xlsx
+++ b/source/portal/static/portal/excel/mng_excel_template_base.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Lookups" sheetId="2" r:id="rId2"/>
+    <sheet name="Lookups" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Types">#REF!</definedName>
@@ -1493,7 +1493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
@@ -3758,9 +3758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5609"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/source/portal/static/portal/excel/mng_excel_template_base.xlsx
+++ b/source/portal/static/portal/excel/mng_excel_template_base.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="139">
   <si>
     <t>Geographic Location (of sample collection)</t>
   </si>
@@ -482,6 +482,9 @@
       </rPr>
       <t>Only fill in if your strain is lab derived</t>
     </r>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -3756,13 +3759,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5609"/>
+  <dimension ref="B1:E5609"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4053,6 +4058,9 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
       <c r="D31" t="s">
         <v>83</v>
       </c>
@@ -4269,6 +4277,9 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
+      <c r="D67" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>

--- a/source/portal/static/portal/excel/mng_excel_template_base.xlsx
+++ b/source/portal/static/portal/excel/mng_excel_template_base.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
   <si>
     <t>Geographic Location (of sample collection)</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Barcode ID</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
     <t>Country / Ocean</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>Details (media, genes etc.)</t>
   </si>
   <si>
-    <t>Host Taxon (Scientific name)</t>
-  </si>
-  <si>
     <t>Sample Type</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>MySampleNameA</t>
   </si>
   <si>
-    <t>Escherichia coli</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>Example_1002</t>
   </si>
   <si>
-    <t>Homo sapiens</t>
-  </si>
-  <si>
     <t>Bloody diarrhoea</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Campylobacter coli</t>
-  </si>
-  <si>
     <t>Air</t>
   </si>
   <si>
@@ -422,9 +407,6 @@
   </si>
   <si>
     <t>Royal Free Hospital, London</t>
-  </si>
-  <si>
-    <t>Lomanococcus milibandeii</t>
   </si>
   <si>
     <t>Extracted from soil sample collected on campus</t>
@@ -485,6 +467,15 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Use the taxon id lookup tool in the web portal to find your taxon ids</t>
+  </si>
+  <si>
+    <t>Host Taxon ID (EBI/NCBI)</t>
+  </si>
+  <si>
+    <t>Sample Taxon ID (EBI/NCBI)</t>
   </si>
 </sst>
 </file>
@@ -980,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -991,12 +982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1008,7 +993,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,6 +1144,24 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1498,7 +1500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1525,156 +1527,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="90" t="s">
+      <c r="A1" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="105" t="s">
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104"/>
+    </row>
+    <row r="2" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="101"/>
+      <c r="L2" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="99"/>
+      <c r="N2" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" s="97"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="65"/>
+      <c r="B3" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="107"/>
-    </row>
-    <row r="2" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="102"/>
-      <c r="N2" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" s="109"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="R2" s="100"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="O3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="23">
+        <v>5.6</v>
+      </c>
+      <c r="E4" s="23">
+        <v>50</v>
+      </c>
+      <c r="F4" s="24">
+        <v>562</v>
+      </c>
+      <c r="G4" s="23">
+        <v>12</v>
+      </c>
+      <c r="H4" s="23">
+        <v>4</v>
+      </c>
+      <c r="I4" s="64">
+        <v>1990</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="26">
-        <v>5.6</v>
-      </c>
-      <c r="E4" s="26">
-        <v>50</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="L4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="26">
-        <v>12</v>
-      </c>
-      <c r="H4" s="26">
-        <v>4</v>
-      </c>
-      <c r="I4" s="67">
-        <v>1990</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="M4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -1685,50 +1689,50 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="A5" s="67"/>
+      <c r="B5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="26">
+      <c r="C5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="23">
+        <v>15</v>
+      </c>
+      <c r="E5" s="23">
         <v>30</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="F5" s="34">
+        <v>195</v>
+      </c>
+      <c r="G5" s="23">
         <v>1</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="23">
         <v>7</v>
       </c>
-      <c r="I5" s="91">
+      <c r="I5" s="88">
         <v>2006</v>
       </c>
-      <c r="J5" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="92"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="39"/>
+      <c r="J5" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="89"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37">
+        <v>9606</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="36"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1739,43 +1743,43 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="81">
+      <c r="A6" s="75"/>
+      <c r="B6" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79">
+        <v>44752</v>
+      </c>
+      <c r="G6" s="78">
         <v>22</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="78">
         <v>12</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="80">
         <v>2011</v>
       </c>
-      <c r="J6" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="84"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="85" t="s">
-        <v>131</v>
+      <c r="J6" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="81"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="82" t="s">
+        <v>125</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1787,1925 +1791,1925 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="75"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="72"/>
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="46"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="46"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="49"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="46"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="49"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="46"/>
     </row>
     <row r="12" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="46"/>
     </row>
     <row r="13" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="49"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="46"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="46"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="49"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="46"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="49"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="49"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="46"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="49"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="46"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="49"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="46"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="49"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="46"/>
     </row>
     <row r="22" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="49"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="46"/>
     </row>
     <row r="23" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="49"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="46"/>
     </row>
     <row r="24" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="49"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="46"/>
     </row>
     <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="49"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="46"/>
     </row>
     <row r="26" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="49"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="46"/>
     </row>
     <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="49"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="46"/>
     </row>
     <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="49"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="46"/>
     </row>
     <row r="29" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="49"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="46"/>
     </row>
     <row r="30" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="49"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="46"/>
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="71"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="49"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="46"/>
     </row>
     <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="71"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="49"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="46"/>
     </row>
     <row r="33" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="71"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="49"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="46"/>
     </row>
     <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="71"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="49"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="46"/>
     </row>
     <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="71"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="49"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="46"/>
     </row>
     <row r="36" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="71"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="49"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="46"/>
     </row>
     <row r="37" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="71"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="49"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="46"/>
     </row>
     <row r="38" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="71"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="49"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="46"/>
     </row>
     <row r="39" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="71"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="49"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="46"/>
     </row>
     <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="71"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="49"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="46"/>
     </row>
     <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="71"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="49"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="46"/>
     </row>
     <row r="42" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="71"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="49"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="46"/>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="71"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="49"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="46"/>
     </row>
     <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="71"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="49"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="46"/>
     </row>
     <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="71"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="49"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="46"/>
     </row>
     <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="71"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="49"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="46"/>
     </row>
     <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="71"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="49"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="46"/>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="71"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="49"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="46"/>
     </row>
     <row r="49" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="71"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="49"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="46"/>
     </row>
     <row r="50" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="71"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="49"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="46"/>
     </row>
     <row r="51" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="71"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="49"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="112"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="46"/>
     </row>
     <row r="52" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="71"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="49"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="112"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="46"/>
     </row>
     <row r="53" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="71"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="49"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="49"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="112"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="46"/>
     </row>
     <row r="54" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="71"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="49"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="112"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="46"/>
     </row>
     <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="71"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="49"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="46"/>
     </row>
     <row r="56" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="71"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="49"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="46"/>
     </row>
     <row r="57" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="71"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="49"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="46"/>
     </row>
     <row r="58" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="71"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="49"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="112"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="46"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="71"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="49"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="112"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="46"/>
     </row>
     <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="71"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="49"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="112"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="46"/>
     </row>
     <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="71"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="50"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="48"/>
-      <c r="R61" s="49"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="112"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="46"/>
     </row>
     <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="71"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="48"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="50"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="49"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="112"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="46"/>
     </row>
     <row r="63" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="71"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="48"/>
-      <c r="R63" s="49"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="112"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="46"/>
     </row>
     <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="71"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="49"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="112"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="46"/>
     </row>
     <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="71"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="50"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="49"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="112"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="46"/>
     </row>
     <row r="66" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="71"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="50"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="49"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="112"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="46"/>
     </row>
     <row r="67" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="71"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="49"/>
+      <c r="A67" s="68"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="112"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="46"/>
     </row>
     <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="71"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="49"/>
+      <c r="A68" s="68"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="112"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="46"/>
     </row>
     <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="71"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="49"/>
-      <c r="Q69" s="48"/>
-      <c r="R69" s="49"/>
+      <c r="A69" s="68"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="109"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="112"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="46"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="71"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="49"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="49"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="109"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="112"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="46"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="46"/>
     </row>
     <row r="71" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="71"/>
-      <c r="B71" s="88"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="49"/>
-      <c r="Q71" s="48"/>
-      <c r="R71" s="49"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="112"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="46"/>
+      <c r="Q71" s="45"/>
+      <c r="R71" s="46"/>
     </row>
     <row r="72" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="71"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="48"/>
-      <c r="R72" s="49"/>
+      <c r="A72" s="68"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="112"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="46"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="46"/>
     </row>
     <row r="73" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="71"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="49"/>
-      <c r="Q73" s="48"/>
-      <c r="R73" s="49"/>
+      <c r="A73" s="68"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="109"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="112"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="46"/>
     </row>
     <row r="74" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="71"/>
-      <c r="B74" s="88"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="48"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="48"/>
-      <c r="R74" s="49"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="109"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="112"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="45"/>
+      <c r="R74" s="46"/>
     </row>
     <row r="75" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="71"/>
-      <c r="B75" s="88"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="50"/>
-      <c r="P75" s="49"/>
-      <c r="Q75" s="48"/>
-      <c r="R75" s="49"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="109"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="112"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="45"/>
+      <c r="R75" s="46"/>
     </row>
     <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="71"/>
-      <c r="B76" s="88"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="50"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="48"/>
-      <c r="R76" s="49"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="112"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="45"/>
+      <c r="R76" s="46"/>
     </row>
     <row r="77" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="71"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="48"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="48"/>
-      <c r="O77" s="50"/>
-      <c r="P77" s="49"/>
-      <c r="Q77" s="48"/>
-      <c r="R77" s="49"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="109"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="112"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="46"/>
+      <c r="Q77" s="45"/>
+      <c r="R77" s="46"/>
     </row>
     <row r="78" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="71"/>
-      <c r="B78" s="88"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="48"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="48"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="49"/>
-      <c r="Q78" s="48"/>
-      <c r="R78" s="49"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="109"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="112"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="45"/>
+      <c r="R78" s="46"/>
     </row>
     <row r="79" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="71"/>
-      <c r="B79" s="88"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="48"/>
-      <c r="M79" s="49"/>
-      <c r="N79" s="48"/>
-      <c r="O79" s="50"/>
-      <c r="P79" s="49"/>
-      <c r="Q79" s="48"/>
-      <c r="R79" s="49"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="109"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="112"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="46"/>
+      <c r="Q79" s="45"/>
+      <c r="R79" s="46"/>
     </row>
     <row r="80" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="71"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="48"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="48"/>
-      <c r="O80" s="50"/>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="48"/>
-      <c r="R80" s="49"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="109"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="112"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="46"/>
+      <c r="Q80" s="45"/>
+      <c r="R80" s="46"/>
     </row>
     <row r="81" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="71"/>
-      <c r="B81" s="88"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="48"/>
-      <c r="M81" s="49"/>
-      <c r="N81" s="48"/>
-      <c r="O81" s="50"/>
-      <c r="P81" s="49"/>
-      <c r="Q81" s="48"/>
-      <c r="R81" s="49"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="109"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="112"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="46"/>
+      <c r="Q81" s="45"/>
+      <c r="R81" s="46"/>
     </row>
     <row r="82" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="71"/>
-      <c r="B82" s="88"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="48"/>
-      <c r="M82" s="49"/>
-      <c r="N82" s="48"/>
-      <c r="O82" s="50"/>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="48"/>
-      <c r="R82" s="49"/>
+      <c r="A82" s="68"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="112"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="45"/>
+      <c r="R82" s="46"/>
     </row>
     <row r="83" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="71"/>
-      <c r="B83" s="88"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="48"/>
-      <c r="M83" s="49"/>
-      <c r="N83" s="48"/>
-      <c r="O83" s="50"/>
-      <c r="P83" s="49"/>
-      <c r="Q83" s="48"/>
-      <c r="R83" s="49"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="109"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="112"/>
+      <c r="O83" s="47"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="45"/>
+      <c r="R83" s="46"/>
     </row>
     <row r="84" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="71"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="48"/>
-      <c r="M84" s="49"/>
-      <c r="N84" s="48"/>
-      <c r="O84" s="50"/>
-      <c r="P84" s="49"/>
-      <c r="Q84" s="48"/>
-      <c r="R84" s="49"/>
+      <c r="A84" s="68"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="109"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="112"/>
+      <c r="O84" s="47"/>
+      <c r="P84" s="46"/>
+      <c r="Q84" s="45"/>
+      <c r="R84" s="46"/>
     </row>
     <row r="85" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="71"/>
-      <c r="B85" s="88"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="48"/>
-      <c r="M85" s="49"/>
-      <c r="N85" s="48"/>
-      <c r="O85" s="50"/>
-      <c r="P85" s="49"/>
-      <c r="Q85" s="48"/>
-      <c r="R85" s="49"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="109"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="46"/>
+      <c r="N85" s="112"/>
+      <c r="O85" s="47"/>
+      <c r="P85" s="46"/>
+      <c r="Q85" s="45"/>
+      <c r="R85" s="46"/>
     </row>
     <row r="86" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="71"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="52"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="48"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="49"/>
-      <c r="Q86" s="48"/>
-      <c r="R86" s="49"/>
+      <c r="A86" s="68"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="109"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="112"/>
+      <c r="O86" s="47"/>
+      <c r="P86" s="46"/>
+      <c r="Q86" s="45"/>
+      <c r="R86" s="46"/>
     </row>
     <row r="87" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="71"/>
-      <c r="B87" s="88"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="48"/>
-      <c r="M87" s="49"/>
-      <c r="N87" s="48"/>
-      <c r="O87" s="50"/>
-      <c r="P87" s="49"/>
-      <c r="Q87" s="48"/>
-      <c r="R87" s="49"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="109"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="112"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="46"/>
+      <c r="Q87" s="45"/>
+      <c r="R87" s="46"/>
     </row>
     <row r="88" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="71"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="52"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="49"/>
-      <c r="N88" s="48"/>
-      <c r="O88" s="50"/>
-      <c r="P88" s="49"/>
-      <c r="Q88" s="48"/>
-      <c r="R88" s="49"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="109"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="50"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="112"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="46"/>
+      <c r="Q88" s="45"/>
+      <c r="R88" s="46"/>
     </row>
     <row r="89" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="71"/>
-      <c r="B89" s="88"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="52"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="48"/>
-      <c r="M89" s="49"/>
-      <c r="N89" s="48"/>
-      <c r="O89" s="50"/>
-      <c r="P89" s="49"/>
-      <c r="Q89" s="48"/>
-      <c r="R89" s="49"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="109"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="112"/>
+      <c r="O89" s="47"/>
+      <c r="P89" s="46"/>
+      <c r="Q89" s="45"/>
+      <c r="R89" s="46"/>
     </row>
     <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="71"/>
-      <c r="B90" s="88"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="52"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="48"/>
-      <c r="M90" s="49"/>
-      <c r="N90" s="48"/>
-      <c r="O90" s="50"/>
-      <c r="P90" s="49"/>
-      <c r="Q90" s="48"/>
-      <c r="R90" s="49"/>
+      <c r="A90" s="68"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="109"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="112"/>
+      <c r="O90" s="47"/>
+      <c r="P90" s="46"/>
+      <c r="Q90" s="45"/>
+      <c r="R90" s="46"/>
     </row>
     <row r="91" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="71"/>
-      <c r="B91" s="88"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="48"/>
-      <c r="M91" s="49"/>
-      <c r="N91" s="48"/>
-      <c r="O91" s="50"/>
-      <c r="P91" s="49"/>
-      <c r="Q91" s="48"/>
-      <c r="R91" s="49"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="109"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="112"/>
+      <c r="O91" s="47"/>
+      <c r="P91" s="46"/>
+      <c r="Q91" s="45"/>
+      <c r="R91" s="46"/>
     </row>
     <row r="92" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="71"/>
-      <c r="B92" s="88"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="52"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="49"/>
-      <c r="N92" s="48"/>
-      <c r="O92" s="50"/>
-      <c r="P92" s="49"/>
-      <c r="Q92" s="48"/>
-      <c r="R92" s="49"/>
+      <c r="A92" s="68"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="109"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="45"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="112"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="46"/>
     </row>
     <row r="93" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="71"/>
-      <c r="B93" s="88"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="52"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="48"/>
-      <c r="M93" s="49"/>
-      <c r="N93" s="48"/>
-      <c r="O93" s="50"/>
-      <c r="P93" s="49"/>
-      <c r="Q93" s="48"/>
-      <c r="R93" s="49"/>
+      <c r="A93" s="68"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="109"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="46"/>
+      <c r="N93" s="112"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="46"/>
+      <c r="Q93" s="45"/>
+      <c r="R93" s="46"/>
     </row>
     <row r="94" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="71"/>
-      <c r="B94" s="88"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="52"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="54"/>
-      <c r="L94" s="48"/>
-      <c r="M94" s="49"/>
-      <c r="N94" s="48"/>
-      <c r="O94" s="50"/>
-      <c r="P94" s="49"/>
-      <c r="Q94" s="48"/>
-      <c r="R94" s="49"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="109"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="45"/>
+      <c r="M94" s="46"/>
+      <c r="N94" s="112"/>
+      <c r="O94" s="47"/>
+      <c r="P94" s="46"/>
+      <c r="Q94" s="45"/>
+      <c r="R94" s="46"/>
     </row>
     <row r="95" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="71"/>
-      <c r="B95" s="88"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="52"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="48"/>
-      <c r="M95" s="49"/>
-      <c r="N95" s="48"/>
-      <c r="O95" s="50"/>
-      <c r="P95" s="49"/>
-      <c r="Q95" s="48"/>
-      <c r="R95" s="49"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="109"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="45"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="112"/>
+      <c r="O95" s="47"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="45"/>
+      <c r="R95" s="46"/>
     </row>
     <row r="96" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="71"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="52"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="49"/>
-      <c r="N96" s="48"/>
-      <c r="O96" s="50"/>
-      <c r="P96" s="49"/>
-      <c r="Q96" s="48"/>
-      <c r="R96" s="49"/>
+      <c r="A96" s="68"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="109"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="45"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="112"/>
+      <c r="O96" s="47"/>
+      <c r="P96" s="46"/>
+      <c r="Q96" s="45"/>
+      <c r="R96" s="46"/>
     </row>
     <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="71"/>
-      <c r="B97" s="88"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="52"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="48"/>
-      <c r="M97" s="49"/>
-      <c r="N97" s="48"/>
-      <c r="O97" s="50"/>
-      <c r="P97" s="49"/>
-      <c r="Q97" s="48"/>
-      <c r="R97" s="49"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="109"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="45"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="112"/>
+      <c r="O97" s="47"/>
+      <c r="P97" s="46"/>
+      <c r="Q97" s="45"/>
+      <c r="R97" s="46"/>
     </row>
     <row r="98" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="71"/>
-      <c r="B98" s="88"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="48"/>
-      <c r="M98" s="49"/>
-      <c r="N98" s="48"/>
-      <c r="O98" s="50"/>
-      <c r="P98" s="49"/>
-      <c r="Q98" s="48"/>
-      <c r="R98" s="49"/>
+      <c r="A98" s="68"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="109"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="45"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="112"/>
+      <c r="O98" s="47"/>
+      <c r="P98" s="46"/>
+      <c r="Q98" s="45"/>
+      <c r="R98" s="46"/>
     </row>
     <row r="99" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="71"/>
-      <c r="B99" s="88"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="48"/>
-      <c r="M99" s="49"/>
-      <c r="N99" s="48"/>
-      <c r="O99" s="50"/>
-      <c r="P99" s="49"/>
-      <c r="Q99" s="48"/>
-      <c r="R99" s="49"/>
+      <c r="A99" s="68"/>
+      <c r="B99" s="85"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="109"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="45"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="112"/>
+      <c r="O99" s="47"/>
+      <c r="P99" s="46"/>
+      <c r="Q99" s="45"/>
+      <c r="R99" s="46"/>
     </row>
     <row r="100" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="71"/>
-      <c r="B100" s="88"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="52"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="48"/>
-      <c r="M100" s="49"/>
-      <c r="N100" s="48"/>
-      <c r="O100" s="50"/>
-      <c r="P100" s="49"/>
-      <c r="Q100" s="48"/>
-      <c r="R100" s="49"/>
+      <c r="A100" s="68"/>
+      <c r="B100" s="85"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="109"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="45"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="112"/>
+      <c r="O100" s="47"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="45"/>
+      <c r="R100" s="46"/>
     </row>
     <row r="101" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="71"/>
-      <c r="B101" s="88"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="52"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="48"/>
-      <c r="M101" s="49"/>
-      <c r="N101" s="48"/>
-      <c r="O101" s="50"/>
-      <c r="P101" s="49"/>
-      <c r="Q101" s="48"/>
-      <c r="R101" s="49"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="109"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="50"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="46"/>
+      <c r="N101" s="112"/>
+      <c r="O101" s="47"/>
+      <c r="P101" s="46"/>
+      <c r="Q101" s="45"/>
+      <c r="R101" s="46"/>
     </row>
     <row r="102" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="72"/>
-      <c r="B102" s="89"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="61"/>
-      <c r="M102" s="62"/>
-      <c r="N102" s="61"/>
-      <c r="O102" s="63"/>
-      <c r="P102" s="62"/>
-      <c r="Q102" s="61"/>
-      <c r="R102" s="62"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="86"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="110"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="56"/>
+      <c r="K102" s="57"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="59"/>
+      <c r="N102" s="113"/>
+      <c r="O102" s="60"/>
+      <c r="P102" s="59"/>
+      <c r="Q102" s="58"/>
+      <c r="R102" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3761,7 +3765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E5609"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -3774,511 +3778,511 @@
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="6"/>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="6"/>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="6"/>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="6"/>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="6"/>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6"/>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="6"/>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="6"/>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="6"/>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="6"/>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="6"/>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">

--- a/source/portal/static/portal/excel/mng_excel_template_base.xlsx
+++ b/source/portal/static/portal/excel/mng_excel_template_base.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1114,6 +1114,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1144,24 +1162,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,7 +1500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1527,60 +1527,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
       <c r="D1" s="10"/>
       <c r="E1" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="104"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="110"/>
     </row>
     <row r="2" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="99" t="s">
         <v>133</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="98" t="s">
+      <c r="K2" s="107"/>
+      <c r="L2" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="99"/>
-      <c r="N2" s="105" t="s">
+      <c r="M2" s="105"/>
+      <c r="N2" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="96" t="s">
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="97"/>
+      <c r="R2" s="103"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="65"/>
@@ -1796,7 +1796,7 @@
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
       <c r="E7" s="40"/>
-      <c r="F7" s="109"/>
+      <c r="F7" s="94"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
       <c r="I7" s="74"/>
@@ -1804,7 +1804,7 @@
       <c r="K7" s="73"/>
       <c r="L7" s="47"/>
       <c r="M7" s="72"/>
-      <c r="N7" s="111"/>
+      <c r="N7" s="96"/>
       <c r="O7" s="70"/>
       <c r="P7" s="71"/>
       <c r="Q7" s="47"/>
@@ -1817,7 +1817,7 @@
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="109"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
@@ -1825,7 +1825,7 @@
       <c r="K8" s="44"/>
       <c r="L8" s="45"/>
       <c r="M8" s="46"/>
-      <c r="N8" s="112"/>
+      <c r="N8" s="97"/>
       <c r="O8" s="47"/>
       <c r="P8" s="46"/>
       <c r="Q8" s="45"/>
@@ -1837,7 +1837,7 @@
       <c r="C9" s="40"/>
       <c r="D9" s="41"/>
       <c r="E9" s="40"/>
-      <c r="F9" s="109"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
@@ -1845,7 +1845,7 @@
       <c r="K9" s="44"/>
       <c r="L9" s="45"/>
       <c r="M9" s="46"/>
-      <c r="N9" s="112"/>
+      <c r="N9" s="97"/>
       <c r="O9" s="47"/>
       <c r="P9" s="46"/>
       <c r="Q9" s="45"/>
@@ -1857,7 +1857,7 @@
       <c r="C10" s="40"/>
       <c r="D10" s="41"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="109"/>
+      <c r="F10" s="94"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -1865,7 +1865,7 @@
       <c r="K10" s="44"/>
       <c r="L10" s="45"/>
       <c r="M10" s="46"/>
-      <c r="N10" s="112"/>
+      <c r="N10" s="97"/>
       <c r="O10" s="47"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="45"/>
@@ -1877,7 +1877,7 @@
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
       <c r="E11" s="40"/>
-      <c r="F11" s="109"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
@@ -1885,7 +1885,7 @@
       <c r="K11" s="44"/>
       <c r="L11" s="45"/>
       <c r="M11" s="46"/>
-      <c r="N11" s="112"/>
+      <c r="N11" s="97"/>
       <c r="O11" s="47"/>
       <c r="P11" s="46"/>
       <c r="Q11" s="45"/>
@@ -1897,7 +1897,7 @@
       <c r="C12" s="40"/>
       <c r="D12" s="41"/>
       <c r="E12" s="40"/>
-      <c r="F12" s="109"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
@@ -1905,7 +1905,7 @@
       <c r="K12" s="44"/>
       <c r="L12" s="45"/>
       <c r="M12" s="46"/>
-      <c r="N12" s="112"/>
+      <c r="N12" s="97"/>
       <c r="O12" s="47"/>
       <c r="P12" s="46"/>
       <c r="Q12" s="45"/>
@@ -1917,7 +1917,7 @@
       <c r="C13" s="40"/>
       <c r="D13" s="41"/>
       <c r="E13" s="40"/>
-      <c r="F13" s="109"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
@@ -1925,7 +1925,7 @@
       <c r="K13" s="44"/>
       <c r="L13" s="45"/>
       <c r="M13" s="46"/>
-      <c r="N13" s="112"/>
+      <c r="N13" s="97"/>
       <c r="O13" s="47"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="45"/>
@@ -1937,7 +1937,7 @@
       <c r="C14" s="40"/>
       <c r="D14" s="41"/>
       <c r="E14" s="48"/>
-      <c r="F14" s="109"/>
+      <c r="F14" s="94"/>
       <c r="G14" s="49"/>
       <c r="H14" s="49"/>
       <c r="I14" s="49"/>
@@ -1945,7 +1945,7 @@
       <c r="K14" s="51"/>
       <c r="L14" s="45"/>
       <c r="M14" s="46"/>
-      <c r="N14" s="112"/>
+      <c r="N14" s="97"/>
       <c r="O14" s="47"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="45"/>
@@ -1957,7 +1957,7 @@
       <c r="C15" s="40"/>
       <c r="D15" s="41"/>
       <c r="E15" s="48"/>
-      <c r="F15" s="109"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="49"/>
       <c r="H15" s="49"/>
       <c r="I15" s="49"/>
@@ -1965,7 +1965,7 @@
       <c r="K15" s="51"/>
       <c r="L15" s="45"/>
       <c r="M15" s="46"/>
-      <c r="N15" s="112"/>
+      <c r="N15" s="97"/>
       <c r="O15" s="47"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="45"/>
@@ -1977,7 +1977,7 @@
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
       <c r="E16" s="48"/>
-      <c r="F16" s="109"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
       <c r="I16" s="49"/>
@@ -1985,7 +1985,7 @@
       <c r="K16" s="51"/>
       <c r="L16" s="45"/>
       <c r="M16" s="46"/>
-      <c r="N16" s="112"/>
+      <c r="N16" s="97"/>
       <c r="O16" s="47"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="45"/>
@@ -1997,7 +1997,7 @@
       <c r="C17" s="40"/>
       <c r="D17" s="41"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="109"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
       <c r="I17" s="49"/>
@@ -2005,7 +2005,7 @@
       <c r="K17" s="51"/>
       <c r="L17" s="45"/>
       <c r="M17" s="46"/>
-      <c r="N17" s="112"/>
+      <c r="N17" s="97"/>
       <c r="O17" s="47"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="45"/>
@@ -2017,7 +2017,7 @@
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="109"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -2025,7 +2025,7 @@
       <c r="K18" s="51"/>
       <c r="L18" s="45"/>
       <c r="M18" s="46"/>
-      <c r="N18" s="112"/>
+      <c r="N18" s="97"/>
       <c r="O18" s="47"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="45"/>
@@ -2037,7 +2037,7 @@
       <c r="C19" s="40"/>
       <c r="D19" s="41"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="109"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
@@ -2045,7 +2045,7 @@
       <c r="K19" s="51"/>
       <c r="L19" s="45"/>
       <c r="M19" s="46"/>
-      <c r="N19" s="112"/>
+      <c r="N19" s="97"/>
       <c r="O19" s="47"/>
       <c r="P19" s="46"/>
       <c r="Q19" s="45"/>
@@ -2057,7 +2057,7 @@
       <c r="C20" s="40"/>
       <c r="D20" s="41"/>
       <c r="E20" s="48"/>
-      <c r="F20" s="109"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="49"/>
       <c r="H20" s="49"/>
       <c r="I20" s="49"/>
@@ -2065,7 +2065,7 @@
       <c r="K20" s="51"/>
       <c r="L20" s="45"/>
       <c r="M20" s="46"/>
-      <c r="N20" s="112"/>
+      <c r="N20" s="97"/>
       <c r="O20" s="47"/>
       <c r="P20" s="46"/>
       <c r="Q20" s="45"/>
@@ -2077,7 +2077,7 @@
       <c r="C21" s="40"/>
       <c r="D21" s="41"/>
       <c r="E21" s="48"/>
-      <c r="F21" s="109"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="49"/>
       <c r="H21" s="49"/>
       <c r="I21" s="49"/>
@@ -2085,7 +2085,7 @@
       <c r="K21" s="51"/>
       <c r="L21" s="45"/>
       <c r="M21" s="46"/>
-      <c r="N21" s="112"/>
+      <c r="N21" s="97"/>
       <c r="O21" s="47"/>
       <c r="P21" s="46"/>
       <c r="Q21" s="45"/>
@@ -2097,7 +2097,7 @@
       <c r="C22" s="40"/>
       <c r="D22" s="41"/>
       <c r="E22" s="48"/>
-      <c r="F22" s="109"/>
+      <c r="F22" s="94"/>
       <c r="G22" s="49"/>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
@@ -2105,7 +2105,7 @@
       <c r="K22" s="51"/>
       <c r="L22" s="45"/>
       <c r="M22" s="46"/>
-      <c r="N22" s="112"/>
+      <c r="N22" s="97"/>
       <c r="O22" s="47"/>
       <c r="P22" s="46"/>
       <c r="Q22" s="45"/>
@@ -2117,7 +2117,7 @@
       <c r="C23" s="40"/>
       <c r="D23" s="41"/>
       <c r="E23" s="48"/>
-      <c r="F23" s="109"/>
+      <c r="F23" s="94"/>
       <c r="G23" s="49"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
@@ -2125,7 +2125,7 @@
       <c r="K23" s="51"/>
       <c r="L23" s="45"/>
       <c r="M23" s="46"/>
-      <c r="N23" s="112"/>
+      <c r="N23" s="97"/>
       <c r="O23" s="47"/>
       <c r="P23" s="46"/>
       <c r="Q23" s="45"/>
@@ -2137,7 +2137,7 @@
       <c r="C24" s="40"/>
       <c r="D24" s="41"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="109"/>
+      <c r="F24" s="94"/>
       <c r="G24" s="49"/>
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
@@ -2145,7 +2145,7 @@
       <c r="K24" s="51"/>
       <c r="L24" s="45"/>
       <c r="M24" s="46"/>
-      <c r="N24" s="112"/>
+      <c r="N24" s="97"/>
       <c r="O24" s="47"/>
       <c r="P24" s="46"/>
       <c r="Q24" s="45"/>
@@ -2157,7 +2157,7 @@
       <c r="C25" s="40"/>
       <c r="D25" s="41"/>
       <c r="E25" s="48"/>
-      <c r="F25" s="109"/>
+      <c r="F25" s="94"/>
       <c r="G25" s="49"/>
       <c r="H25" s="49"/>
       <c r="I25" s="49"/>
@@ -2165,7 +2165,7 @@
       <c r="K25" s="51"/>
       <c r="L25" s="45"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="112"/>
+      <c r="N25" s="97"/>
       <c r="O25" s="47"/>
       <c r="P25" s="46"/>
       <c r="Q25" s="45"/>
@@ -2177,7 +2177,7 @@
       <c r="C26" s="40"/>
       <c r="D26" s="41"/>
       <c r="E26" s="48"/>
-      <c r="F26" s="109"/>
+      <c r="F26" s="94"/>
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
@@ -2185,7 +2185,7 @@
       <c r="K26" s="51"/>
       <c r="L26" s="45"/>
       <c r="M26" s="46"/>
-      <c r="N26" s="112"/>
+      <c r="N26" s="97"/>
       <c r="O26" s="47"/>
       <c r="P26" s="46"/>
       <c r="Q26" s="45"/>
@@ -2197,7 +2197,7 @@
       <c r="C27" s="40"/>
       <c r="D27" s="41"/>
       <c r="E27" s="48"/>
-      <c r="F27" s="109"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
       <c r="I27" s="49"/>
@@ -2205,7 +2205,7 @@
       <c r="K27" s="51"/>
       <c r="L27" s="45"/>
       <c r="M27" s="46"/>
-      <c r="N27" s="112"/>
+      <c r="N27" s="97"/>
       <c r="O27" s="47"/>
       <c r="P27" s="46"/>
       <c r="Q27" s="45"/>
@@ -2217,7 +2217,7 @@
       <c r="C28" s="40"/>
       <c r="D28" s="41"/>
       <c r="E28" s="48"/>
-      <c r="F28" s="109"/>
+      <c r="F28" s="94"/>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
       <c r="I28" s="49"/>
@@ -2225,7 +2225,7 @@
       <c r="K28" s="51"/>
       <c r="L28" s="45"/>
       <c r="M28" s="46"/>
-      <c r="N28" s="112"/>
+      <c r="N28" s="97"/>
       <c r="O28" s="47"/>
       <c r="P28" s="46"/>
       <c r="Q28" s="45"/>
@@ -2237,7 +2237,7 @@
       <c r="C29" s="40"/>
       <c r="D29" s="41"/>
       <c r="E29" s="48"/>
-      <c r="F29" s="109"/>
+      <c r="F29" s="94"/>
       <c r="G29" s="49"/>
       <c r="H29" s="49"/>
       <c r="I29" s="49"/>
@@ -2245,7 +2245,7 @@
       <c r="K29" s="51"/>
       <c r="L29" s="45"/>
       <c r="M29" s="46"/>
-      <c r="N29" s="112"/>
+      <c r="N29" s="97"/>
       <c r="O29" s="47"/>
       <c r="P29" s="46"/>
       <c r="Q29" s="45"/>
@@ -2257,7 +2257,7 @@
       <c r="C30" s="40"/>
       <c r="D30" s="41"/>
       <c r="E30" s="48"/>
-      <c r="F30" s="109"/>
+      <c r="F30" s="94"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
       <c r="I30" s="49"/>
@@ -2265,7 +2265,7 @@
       <c r="K30" s="51"/>
       <c r="L30" s="45"/>
       <c r="M30" s="46"/>
-      <c r="N30" s="112"/>
+      <c r="N30" s="97"/>
       <c r="O30" s="47"/>
       <c r="P30" s="46"/>
       <c r="Q30" s="45"/>
@@ -2277,7 +2277,7 @@
       <c r="C31" s="40"/>
       <c r="D31" s="41"/>
       <c r="E31" s="48"/>
-      <c r="F31" s="109"/>
+      <c r="F31" s="94"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
       <c r="I31" s="49"/>
@@ -2285,7 +2285,7 @@
       <c r="K31" s="51"/>
       <c r="L31" s="45"/>
       <c r="M31" s="46"/>
-      <c r="N31" s="112"/>
+      <c r="N31" s="97"/>
       <c r="O31" s="47"/>
       <c r="P31" s="46"/>
       <c r="Q31" s="45"/>
@@ -2297,7 +2297,7 @@
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
       <c r="E32" s="48"/>
-      <c r="F32" s="109"/>
+      <c r="F32" s="94"/>
       <c r="G32" s="49"/>
       <c r="H32" s="49"/>
       <c r="I32" s="49"/>
@@ -2305,7 +2305,7 @@
       <c r="K32" s="51"/>
       <c r="L32" s="45"/>
       <c r="M32" s="46"/>
-      <c r="N32" s="112"/>
+      <c r="N32" s="97"/>
       <c r="O32" s="47"/>
       <c r="P32" s="46"/>
       <c r="Q32" s="45"/>
@@ -2317,7 +2317,7 @@
       <c r="C33" s="40"/>
       <c r="D33" s="41"/>
       <c r="E33" s="48"/>
-      <c r="F33" s="109"/>
+      <c r="F33" s="94"/>
       <c r="G33" s="49"/>
       <c r="H33" s="49"/>
       <c r="I33" s="49"/>
@@ -2325,7 +2325,7 @@
       <c r="K33" s="51"/>
       <c r="L33" s="45"/>
       <c r="M33" s="46"/>
-      <c r="N33" s="112"/>
+      <c r="N33" s="97"/>
       <c r="O33" s="47"/>
       <c r="P33" s="46"/>
       <c r="Q33" s="45"/>
@@ -2337,7 +2337,7 @@
       <c r="C34" s="40"/>
       <c r="D34" s="41"/>
       <c r="E34" s="48"/>
-      <c r="F34" s="109"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="49"/>
       <c r="H34" s="49"/>
       <c r="I34" s="49"/>
@@ -2345,7 +2345,7 @@
       <c r="K34" s="51"/>
       <c r="L34" s="45"/>
       <c r="M34" s="46"/>
-      <c r="N34" s="112"/>
+      <c r="N34" s="97"/>
       <c r="O34" s="47"/>
       <c r="P34" s="46"/>
       <c r="Q34" s="45"/>
@@ -2357,7 +2357,7 @@
       <c r="C35" s="40"/>
       <c r="D35" s="41"/>
       <c r="E35" s="48"/>
-      <c r="F35" s="109"/>
+      <c r="F35" s="94"/>
       <c r="G35" s="49"/>
       <c r="H35" s="49"/>
       <c r="I35" s="49"/>
@@ -2365,7 +2365,7 @@
       <c r="K35" s="51"/>
       <c r="L35" s="45"/>
       <c r="M35" s="46"/>
-      <c r="N35" s="112"/>
+      <c r="N35" s="97"/>
       <c r="O35" s="47"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45"/>
@@ -2377,7 +2377,7 @@
       <c r="C36" s="40"/>
       <c r="D36" s="41"/>
       <c r="E36" s="48"/>
-      <c r="F36" s="109"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="49"/>
       <c r="H36" s="49"/>
       <c r="I36" s="49"/>
@@ -2385,7 +2385,7 @@
       <c r="K36" s="51"/>
       <c r="L36" s="45"/>
       <c r="M36" s="46"/>
-      <c r="N36" s="112"/>
+      <c r="N36" s="97"/>
       <c r="O36" s="47"/>
       <c r="P36" s="46"/>
       <c r="Q36" s="45"/>
@@ -2397,7 +2397,7 @@
       <c r="C37" s="40"/>
       <c r="D37" s="41"/>
       <c r="E37" s="48"/>
-      <c r="F37" s="109"/>
+      <c r="F37" s="94"/>
       <c r="G37" s="49"/>
       <c r="H37" s="49"/>
       <c r="I37" s="49"/>
@@ -2405,7 +2405,7 @@
       <c r="K37" s="51"/>
       <c r="L37" s="45"/>
       <c r="M37" s="46"/>
-      <c r="N37" s="112"/>
+      <c r="N37" s="97"/>
       <c r="O37" s="47"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45"/>
@@ -2417,7 +2417,7 @@
       <c r="C38" s="40"/>
       <c r="D38" s="41"/>
       <c r="E38" s="48"/>
-      <c r="F38" s="109"/>
+      <c r="F38" s="94"/>
       <c r="G38" s="49"/>
       <c r="H38" s="49"/>
       <c r="I38" s="49"/>
@@ -2425,7 +2425,7 @@
       <c r="K38" s="51"/>
       <c r="L38" s="45"/>
       <c r="M38" s="46"/>
-      <c r="N38" s="112"/>
+      <c r="N38" s="97"/>
       <c r="O38" s="47"/>
       <c r="P38" s="46"/>
       <c r="Q38" s="45"/>
@@ -2437,7 +2437,7 @@
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
       <c r="E39" s="48"/>
-      <c r="F39" s="109"/>
+      <c r="F39" s="94"/>
       <c r="G39" s="49"/>
       <c r="H39" s="49"/>
       <c r="I39" s="49"/>
@@ -2445,7 +2445,7 @@
       <c r="K39" s="51"/>
       <c r="L39" s="45"/>
       <c r="M39" s="46"/>
-      <c r="N39" s="112"/>
+      <c r="N39" s="97"/>
       <c r="O39" s="47"/>
       <c r="P39" s="46"/>
       <c r="Q39" s="45"/>
@@ -2457,7 +2457,7 @@
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
       <c r="E40" s="48"/>
-      <c r="F40" s="109"/>
+      <c r="F40" s="94"/>
       <c r="G40" s="49"/>
       <c r="H40" s="49"/>
       <c r="I40" s="49"/>
@@ -2465,7 +2465,7 @@
       <c r="K40" s="51"/>
       <c r="L40" s="45"/>
       <c r="M40" s="46"/>
-      <c r="N40" s="112"/>
+      <c r="N40" s="97"/>
       <c r="O40" s="47"/>
       <c r="P40" s="46"/>
       <c r="Q40" s="45"/>
@@ -2477,7 +2477,7 @@
       <c r="C41" s="40"/>
       <c r="D41" s="41"/>
       <c r="E41" s="48"/>
-      <c r="F41" s="109"/>
+      <c r="F41" s="94"/>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
       <c r="I41" s="49"/>
@@ -2485,7 +2485,7 @@
       <c r="K41" s="51"/>
       <c r="L41" s="45"/>
       <c r="M41" s="46"/>
-      <c r="N41" s="112"/>
+      <c r="N41" s="97"/>
       <c r="O41" s="47"/>
       <c r="P41" s="46"/>
       <c r="Q41" s="45"/>
@@ -2497,7 +2497,7 @@
       <c r="C42" s="40"/>
       <c r="D42" s="41"/>
       <c r="E42" s="48"/>
-      <c r="F42" s="109"/>
+      <c r="F42" s="94"/>
       <c r="G42" s="49"/>
       <c r="H42" s="49"/>
       <c r="I42" s="49"/>
@@ -2505,7 +2505,7 @@
       <c r="K42" s="51"/>
       <c r="L42" s="45"/>
       <c r="M42" s="46"/>
-      <c r="N42" s="112"/>
+      <c r="N42" s="97"/>
       <c r="O42" s="47"/>
       <c r="P42" s="46"/>
       <c r="Q42" s="45"/>
@@ -2517,7 +2517,7 @@
       <c r="C43" s="40"/>
       <c r="D43" s="41"/>
       <c r="E43" s="48"/>
-      <c r="F43" s="109"/>
+      <c r="F43" s="94"/>
       <c r="G43" s="49"/>
       <c r="H43" s="49"/>
       <c r="I43" s="49"/>
@@ -2525,7 +2525,7 @@
       <c r="K43" s="51"/>
       <c r="L43" s="45"/>
       <c r="M43" s="46"/>
-      <c r="N43" s="112"/>
+      <c r="N43" s="97"/>
       <c r="O43" s="47"/>
       <c r="P43" s="46"/>
       <c r="Q43" s="45"/>
@@ -2537,7 +2537,7 @@
       <c r="C44" s="40"/>
       <c r="D44" s="41"/>
       <c r="E44" s="48"/>
-      <c r="F44" s="109"/>
+      <c r="F44" s="94"/>
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
       <c r="I44" s="49"/>
@@ -2545,7 +2545,7 @@
       <c r="K44" s="51"/>
       <c r="L44" s="45"/>
       <c r="M44" s="46"/>
-      <c r="N44" s="112"/>
+      <c r="N44" s="97"/>
       <c r="O44" s="47"/>
       <c r="P44" s="46"/>
       <c r="Q44" s="45"/>
@@ -2557,7 +2557,7 @@
       <c r="C45" s="40"/>
       <c r="D45" s="41"/>
       <c r="E45" s="48"/>
-      <c r="F45" s="109"/>
+      <c r="F45" s="94"/>
       <c r="G45" s="49"/>
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
@@ -2565,7 +2565,7 @@
       <c r="K45" s="51"/>
       <c r="L45" s="45"/>
       <c r="M45" s="46"/>
-      <c r="N45" s="112"/>
+      <c r="N45" s="97"/>
       <c r="O45" s="47"/>
       <c r="P45" s="46"/>
       <c r="Q45" s="45"/>
@@ -2577,7 +2577,7 @@
       <c r="C46" s="40"/>
       <c r="D46" s="41"/>
       <c r="E46" s="48"/>
-      <c r="F46" s="109"/>
+      <c r="F46" s="94"/>
       <c r="G46" s="49"/>
       <c r="H46" s="49"/>
       <c r="I46" s="49"/>
@@ -2585,7 +2585,7 @@
       <c r="K46" s="51"/>
       <c r="L46" s="45"/>
       <c r="M46" s="46"/>
-      <c r="N46" s="112"/>
+      <c r="N46" s="97"/>
       <c r="O46" s="47"/>
       <c r="P46" s="46"/>
       <c r="Q46" s="45"/>
@@ -2597,7 +2597,7 @@
       <c r="C47" s="40"/>
       <c r="D47" s="41"/>
       <c r="E47" s="48"/>
-      <c r="F47" s="109"/>
+      <c r="F47" s="94"/>
       <c r="G47" s="49"/>
       <c r="H47" s="49"/>
       <c r="I47" s="49"/>
@@ -2605,7 +2605,7 @@
       <c r="K47" s="51"/>
       <c r="L47" s="45"/>
       <c r="M47" s="46"/>
-      <c r="N47" s="112"/>
+      <c r="N47" s="97"/>
       <c r="O47" s="47"/>
       <c r="P47" s="46"/>
       <c r="Q47" s="45"/>
@@ -2617,7 +2617,7 @@
       <c r="C48" s="40"/>
       <c r="D48" s="41"/>
       <c r="E48" s="48"/>
-      <c r="F48" s="109"/>
+      <c r="F48" s="94"/>
       <c r="G48" s="49"/>
       <c r="H48" s="49"/>
       <c r="I48" s="49"/>
@@ -2625,7 +2625,7 @@
       <c r="K48" s="51"/>
       <c r="L48" s="45"/>
       <c r="M48" s="46"/>
-      <c r="N48" s="112"/>
+      <c r="N48" s="97"/>
       <c r="O48" s="47"/>
       <c r="P48" s="46"/>
       <c r="Q48" s="45"/>
@@ -2637,7 +2637,7 @@
       <c r="C49" s="40"/>
       <c r="D49" s="41"/>
       <c r="E49" s="48"/>
-      <c r="F49" s="109"/>
+      <c r="F49" s="94"/>
       <c r="G49" s="49"/>
       <c r="H49" s="49"/>
       <c r="I49" s="49"/>
@@ -2645,7 +2645,7 @@
       <c r="K49" s="51"/>
       <c r="L49" s="45"/>
       <c r="M49" s="46"/>
-      <c r="N49" s="112"/>
+      <c r="N49" s="97"/>
       <c r="O49" s="47"/>
       <c r="P49" s="46"/>
       <c r="Q49" s="45"/>
@@ -2657,7 +2657,7 @@
       <c r="C50" s="40"/>
       <c r="D50" s="41"/>
       <c r="E50" s="48"/>
-      <c r="F50" s="109"/>
+      <c r="F50" s="94"/>
       <c r="G50" s="49"/>
       <c r="H50" s="49"/>
       <c r="I50" s="49"/>
@@ -2665,7 +2665,7 @@
       <c r="K50" s="51"/>
       <c r="L50" s="45"/>
       <c r="M50" s="46"/>
-      <c r="N50" s="112"/>
+      <c r="N50" s="97"/>
       <c r="O50" s="47"/>
       <c r="P50" s="46"/>
       <c r="Q50" s="45"/>
@@ -2677,7 +2677,7 @@
       <c r="C51" s="40"/>
       <c r="D51" s="41"/>
       <c r="E51" s="48"/>
-      <c r="F51" s="109"/>
+      <c r="F51" s="94"/>
       <c r="G51" s="49"/>
       <c r="H51" s="49"/>
       <c r="I51" s="49"/>
@@ -2685,7 +2685,7 @@
       <c r="K51" s="51"/>
       <c r="L51" s="45"/>
       <c r="M51" s="46"/>
-      <c r="N51" s="112"/>
+      <c r="N51" s="97"/>
       <c r="O51" s="47"/>
       <c r="P51" s="46"/>
       <c r="Q51" s="45"/>
@@ -2697,7 +2697,7 @@
       <c r="C52" s="40"/>
       <c r="D52" s="41"/>
       <c r="E52" s="48"/>
-      <c r="F52" s="109"/>
+      <c r="F52" s="94"/>
       <c r="G52" s="49"/>
       <c r="H52" s="49"/>
       <c r="I52" s="49"/>
@@ -2705,7 +2705,7 @@
       <c r="K52" s="51"/>
       <c r="L52" s="45"/>
       <c r="M52" s="46"/>
-      <c r="N52" s="112"/>
+      <c r="N52" s="97"/>
       <c r="O52" s="47"/>
       <c r="P52" s="46"/>
       <c r="Q52" s="45"/>
@@ -2717,7 +2717,7 @@
       <c r="C53" s="40"/>
       <c r="D53" s="41"/>
       <c r="E53" s="48"/>
-      <c r="F53" s="109"/>
+      <c r="F53" s="94"/>
       <c r="G53" s="49"/>
       <c r="H53" s="49"/>
       <c r="I53" s="49"/>
@@ -2725,7 +2725,7 @@
       <c r="K53" s="51"/>
       <c r="L53" s="45"/>
       <c r="M53" s="46"/>
-      <c r="N53" s="112"/>
+      <c r="N53" s="97"/>
       <c r="O53" s="47"/>
       <c r="P53" s="46"/>
       <c r="Q53" s="45"/>
@@ -2737,7 +2737,7 @@
       <c r="C54" s="40"/>
       <c r="D54" s="41"/>
       <c r="E54" s="48"/>
-      <c r="F54" s="109"/>
+      <c r="F54" s="94"/>
       <c r="G54" s="49"/>
       <c r="H54" s="49"/>
       <c r="I54" s="49"/>
@@ -2745,7 +2745,7 @@
       <c r="K54" s="51"/>
       <c r="L54" s="45"/>
       <c r="M54" s="46"/>
-      <c r="N54" s="112"/>
+      <c r="N54" s="97"/>
       <c r="O54" s="47"/>
       <c r="P54" s="46"/>
       <c r="Q54" s="45"/>
@@ -2757,7 +2757,7 @@
       <c r="C55" s="40"/>
       <c r="D55" s="41"/>
       <c r="E55" s="48"/>
-      <c r="F55" s="109"/>
+      <c r="F55" s="94"/>
       <c r="G55" s="49"/>
       <c r="H55" s="49"/>
       <c r="I55" s="49"/>
@@ -2765,7 +2765,7 @@
       <c r="K55" s="51"/>
       <c r="L55" s="45"/>
       <c r="M55" s="46"/>
-      <c r="N55" s="112"/>
+      <c r="N55" s="97"/>
       <c r="O55" s="47"/>
       <c r="P55" s="46"/>
       <c r="Q55" s="45"/>
@@ -2777,7 +2777,7 @@
       <c r="C56" s="40"/>
       <c r="D56" s="41"/>
       <c r="E56" s="48"/>
-      <c r="F56" s="109"/>
+      <c r="F56" s="94"/>
       <c r="G56" s="49"/>
       <c r="H56" s="49"/>
       <c r="I56" s="49"/>
@@ -2785,7 +2785,7 @@
       <c r="K56" s="51"/>
       <c r="L56" s="45"/>
       <c r="M56" s="46"/>
-      <c r="N56" s="112"/>
+      <c r="N56" s="97"/>
       <c r="O56" s="47"/>
       <c r="P56" s="46"/>
       <c r="Q56" s="45"/>
@@ -2797,7 +2797,7 @@
       <c r="C57" s="40"/>
       <c r="D57" s="41"/>
       <c r="E57" s="48"/>
-      <c r="F57" s="109"/>
+      <c r="F57" s="94"/>
       <c r="G57" s="49"/>
       <c r="H57" s="49"/>
       <c r="I57" s="49"/>
@@ -2805,7 +2805,7 @@
       <c r="K57" s="51"/>
       <c r="L57" s="45"/>
       <c r="M57" s="46"/>
-      <c r="N57" s="112"/>
+      <c r="N57" s="97"/>
       <c r="O57" s="47"/>
       <c r="P57" s="46"/>
       <c r="Q57" s="45"/>
@@ -2817,7 +2817,7 @@
       <c r="C58" s="40"/>
       <c r="D58" s="41"/>
       <c r="E58" s="48"/>
-      <c r="F58" s="109"/>
+      <c r="F58" s="94"/>
       <c r="G58" s="49"/>
       <c r="H58" s="49"/>
       <c r="I58" s="49"/>
@@ -2825,7 +2825,7 @@
       <c r="K58" s="51"/>
       <c r="L58" s="45"/>
       <c r="M58" s="46"/>
-      <c r="N58" s="112"/>
+      <c r="N58" s="97"/>
       <c r="O58" s="47"/>
       <c r="P58" s="46"/>
       <c r="Q58" s="45"/>
@@ -2837,7 +2837,7 @@
       <c r="C59" s="40"/>
       <c r="D59" s="41"/>
       <c r="E59" s="48"/>
-      <c r="F59" s="109"/>
+      <c r="F59" s="94"/>
       <c r="G59" s="49"/>
       <c r="H59" s="49"/>
       <c r="I59" s="49"/>
@@ -2845,7 +2845,7 @@
       <c r="K59" s="51"/>
       <c r="L59" s="45"/>
       <c r="M59" s="46"/>
-      <c r="N59" s="112"/>
+      <c r="N59" s="97"/>
       <c r="O59" s="47"/>
       <c r="P59" s="46"/>
       <c r="Q59" s="45"/>
@@ -2857,7 +2857,7 @@
       <c r="C60" s="40"/>
       <c r="D60" s="41"/>
       <c r="E60" s="48"/>
-      <c r="F60" s="109"/>
+      <c r="F60" s="94"/>
       <c r="G60" s="49"/>
       <c r="H60" s="49"/>
       <c r="I60" s="49"/>
@@ -2865,7 +2865,7 @@
       <c r="K60" s="51"/>
       <c r="L60" s="45"/>
       <c r="M60" s="46"/>
-      <c r="N60" s="112"/>
+      <c r="N60" s="97"/>
       <c r="O60" s="47"/>
       <c r="P60" s="46"/>
       <c r="Q60" s="45"/>
@@ -2877,7 +2877,7 @@
       <c r="C61" s="40"/>
       <c r="D61" s="41"/>
       <c r="E61" s="48"/>
-      <c r="F61" s="109"/>
+      <c r="F61" s="94"/>
       <c r="G61" s="49"/>
       <c r="H61" s="49"/>
       <c r="I61" s="49"/>
@@ -2885,7 +2885,7 @@
       <c r="K61" s="51"/>
       <c r="L61" s="45"/>
       <c r="M61" s="46"/>
-      <c r="N61" s="112"/>
+      <c r="N61" s="97"/>
       <c r="O61" s="47"/>
       <c r="P61" s="46"/>
       <c r="Q61" s="45"/>
@@ -2897,7 +2897,7 @@
       <c r="C62" s="40"/>
       <c r="D62" s="41"/>
       <c r="E62" s="48"/>
-      <c r="F62" s="109"/>
+      <c r="F62" s="94"/>
       <c r="G62" s="49"/>
       <c r="H62" s="49"/>
       <c r="I62" s="49"/>
@@ -2905,7 +2905,7 @@
       <c r="K62" s="51"/>
       <c r="L62" s="45"/>
       <c r="M62" s="46"/>
-      <c r="N62" s="112"/>
+      <c r="N62" s="97"/>
       <c r="O62" s="47"/>
       <c r="P62" s="46"/>
       <c r="Q62" s="45"/>
@@ -2917,7 +2917,7 @@
       <c r="C63" s="40"/>
       <c r="D63" s="41"/>
       <c r="E63" s="48"/>
-      <c r="F63" s="109"/>
+      <c r="F63" s="94"/>
       <c r="G63" s="49"/>
       <c r="H63" s="49"/>
       <c r="I63" s="49"/>
@@ -2925,7 +2925,7 @@
       <c r="K63" s="51"/>
       <c r="L63" s="45"/>
       <c r="M63" s="46"/>
-      <c r="N63" s="112"/>
+      <c r="N63" s="97"/>
       <c r="O63" s="47"/>
       <c r="P63" s="46"/>
       <c r="Q63" s="45"/>
@@ -2937,7 +2937,7 @@
       <c r="C64" s="40"/>
       <c r="D64" s="41"/>
       <c r="E64" s="48"/>
-      <c r="F64" s="109"/>
+      <c r="F64" s="94"/>
       <c r="G64" s="49"/>
       <c r="H64" s="49"/>
       <c r="I64" s="49"/>
@@ -2945,7 +2945,7 @@
       <c r="K64" s="51"/>
       <c r="L64" s="45"/>
       <c r="M64" s="46"/>
-      <c r="N64" s="112"/>
+      <c r="N64" s="97"/>
       <c r="O64" s="47"/>
       <c r="P64" s="46"/>
       <c r="Q64" s="45"/>
@@ -2957,7 +2957,7 @@
       <c r="C65" s="40"/>
       <c r="D65" s="41"/>
       <c r="E65" s="48"/>
-      <c r="F65" s="109"/>
+      <c r="F65" s="94"/>
       <c r="G65" s="49"/>
       <c r="H65" s="49"/>
       <c r="I65" s="49"/>
@@ -2965,7 +2965,7 @@
       <c r="K65" s="51"/>
       <c r="L65" s="45"/>
       <c r="M65" s="46"/>
-      <c r="N65" s="112"/>
+      <c r="N65" s="97"/>
       <c r="O65" s="47"/>
       <c r="P65" s="46"/>
       <c r="Q65" s="45"/>
@@ -2977,7 +2977,7 @@
       <c r="C66" s="40"/>
       <c r="D66" s="41"/>
       <c r="E66" s="48"/>
-      <c r="F66" s="109"/>
+      <c r="F66" s="94"/>
       <c r="G66" s="49"/>
       <c r="H66" s="49"/>
       <c r="I66" s="49"/>
@@ -2985,7 +2985,7 @@
       <c r="K66" s="51"/>
       <c r="L66" s="45"/>
       <c r="M66" s="46"/>
-      <c r="N66" s="112"/>
+      <c r="N66" s="97"/>
       <c r="O66" s="47"/>
       <c r="P66" s="46"/>
       <c r="Q66" s="45"/>
@@ -2997,7 +2997,7 @@
       <c r="C67" s="40"/>
       <c r="D67" s="41"/>
       <c r="E67" s="48"/>
-      <c r="F67" s="109"/>
+      <c r="F67" s="94"/>
       <c r="G67" s="49"/>
       <c r="H67" s="49"/>
       <c r="I67" s="49"/>
@@ -3005,7 +3005,7 @@
       <c r="K67" s="51"/>
       <c r="L67" s="45"/>
       <c r="M67" s="46"/>
-      <c r="N67" s="112"/>
+      <c r="N67" s="97"/>
       <c r="O67" s="47"/>
       <c r="P67" s="46"/>
       <c r="Q67" s="45"/>
@@ -3017,7 +3017,7 @@
       <c r="C68" s="40"/>
       <c r="D68" s="41"/>
       <c r="E68" s="48"/>
-      <c r="F68" s="109"/>
+      <c r="F68" s="94"/>
       <c r="G68" s="49"/>
       <c r="H68" s="49"/>
       <c r="I68" s="49"/>
@@ -3025,7 +3025,7 @@
       <c r="K68" s="51"/>
       <c r="L68" s="45"/>
       <c r="M68" s="46"/>
-      <c r="N68" s="112"/>
+      <c r="N68" s="97"/>
       <c r="O68" s="47"/>
       <c r="P68" s="46"/>
       <c r="Q68" s="45"/>
@@ -3037,7 +3037,7 @@
       <c r="C69" s="40"/>
       <c r="D69" s="41"/>
       <c r="E69" s="48"/>
-      <c r="F69" s="109"/>
+      <c r="F69" s="94"/>
       <c r="G69" s="49"/>
       <c r="H69" s="49"/>
       <c r="I69" s="49"/>
@@ -3045,7 +3045,7 @@
       <c r="K69" s="51"/>
       <c r="L69" s="45"/>
       <c r="M69" s="46"/>
-      <c r="N69" s="112"/>
+      <c r="N69" s="97"/>
       <c r="O69" s="47"/>
       <c r="P69" s="46"/>
       <c r="Q69" s="45"/>
@@ -3057,7 +3057,7 @@
       <c r="C70" s="40"/>
       <c r="D70" s="41"/>
       <c r="E70" s="48"/>
-      <c r="F70" s="109"/>
+      <c r="F70" s="94"/>
       <c r="G70" s="49"/>
       <c r="H70" s="49"/>
       <c r="I70" s="49"/>
@@ -3065,7 +3065,7 @@
       <c r="K70" s="51"/>
       <c r="L70" s="45"/>
       <c r="M70" s="46"/>
-      <c r="N70" s="112"/>
+      <c r="N70" s="97"/>
       <c r="O70" s="47"/>
       <c r="P70" s="46"/>
       <c r="Q70" s="45"/>
@@ -3077,7 +3077,7 @@
       <c r="C71" s="40"/>
       <c r="D71" s="41"/>
       <c r="E71" s="48"/>
-      <c r="F71" s="109"/>
+      <c r="F71" s="94"/>
       <c r="G71" s="49"/>
       <c r="H71" s="49"/>
       <c r="I71" s="49"/>
@@ -3085,7 +3085,7 @@
       <c r="K71" s="51"/>
       <c r="L71" s="45"/>
       <c r="M71" s="46"/>
-      <c r="N71" s="112"/>
+      <c r="N71" s="97"/>
       <c r="O71" s="47"/>
       <c r="P71" s="46"/>
       <c r="Q71" s="45"/>
@@ -3097,7 +3097,7 @@
       <c r="C72" s="40"/>
       <c r="D72" s="41"/>
       <c r="E72" s="48"/>
-      <c r="F72" s="109"/>
+      <c r="F72" s="94"/>
       <c r="G72" s="49"/>
       <c r="H72" s="49"/>
       <c r="I72" s="49"/>
@@ -3105,7 +3105,7 @@
       <c r="K72" s="51"/>
       <c r="L72" s="45"/>
       <c r="M72" s="46"/>
-      <c r="N72" s="112"/>
+      <c r="N72" s="97"/>
       <c r="O72" s="47"/>
       <c r="P72" s="46"/>
       <c r="Q72" s="45"/>
@@ -3117,7 +3117,7 @@
       <c r="C73" s="40"/>
       <c r="D73" s="41"/>
       <c r="E73" s="48"/>
-      <c r="F73" s="109"/>
+      <c r="F73" s="94"/>
       <c r="G73" s="49"/>
       <c r="H73" s="49"/>
       <c r="I73" s="49"/>
@@ -3125,7 +3125,7 @@
       <c r="K73" s="51"/>
       <c r="L73" s="45"/>
       <c r="M73" s="46"/>
-      <c r="N73" s="112"/>
+      <c r="N73" s="97"/>
       <c r="O73" s="47"/>
       <c r="P73" s="46"/>
       <c r="Q73" s="45"/>
@@ -3137,7 +3137,7 @@
       <c r="C74" s="40"/>
       <c r="D74" s="41"/>
       <c r="E74" s="48"/>
-      <c r="F74" s="109"/>
+      <c r="F74" s="94"/>
       <c r="G74" s="49"/>
       <c r="H74" s="49"/>
       <c r="I74" s="49"/>
@@ -3145,7 +3145,7 @@
       <c r="K74" s="51"/>
       <c r="L74" s="45"/>
       <c r="M74" s="46"/>
-      <c r="N74" s="112"/>
+      <c r="N74" s="97"/>
       <c r="O74" s="47"/>
       <c r="P74" s="46"/>
       <c r="Q74" s="45"/>
@@ -3157,7 +3157,7 @@
       <c r="C75" s="40"/>
       <c r="D75" s="41"/>
       <c r="E75" s="48"/>
-      <c r="F75" s="109"/>
+      <c r="F75" s="94"/>
       <c r="G75" s="49"/>
       <c r="H75" s="49"/>
       <c r="I75" s="49"/>
@@ -3165,7 +3165,7 @@
       <c r="K75" s="51"/>
       <c r="L75" s="45"/>
       <c r="M75" s="46"/>
-      <c r="N75" s="112"/>
+      <c r="N75" s="97"/>
       <c r="O75" s="47"/>
       <c r="P75" s="46"/>
       <c r="Q75" s="45"/>
@@ -3177,7 +3177,7 @@
       <c r="C76" s="40"/>
       <c r="D76" s="41"/>
       <c r="E76" s="48"/>
-      <c r="F76" s="109"/>
+      <c r="F76" s="94"/>
       <c r="G76" s="49"/>
       <c r="H76" s="49"/>
       <c r="I76" s="49"/>
@@ -3185,7 +3185,7 @@
       <c r="K76" s="51"/>
       <c r="L76" s="45"/>
       <c r="M76" s="46"/>
-      <c r="N76" s="112"/>
+      <c r="N76" s="97"/>
       <c r="O76" s="47"/>
       <c r="P76" s="46"/>
       <c r="Q76" s="45"/>
@@ -3197,7 +3197,7 @@
       <c r="C77" s="40"/>
       <c r="D77" s="41"/>
       <c r="E77" s="48"/>
-      <c r="F77" s="109"/>
+      <c r="F77" s="94"/>
       <c r="G77" s="49"/>
       <c r="H77" s="49"/>
       <c r="I77" s="49"/>
@@ -3205,7 +3205,7 @@
       <c r="K77" s="51"/>
       <c r="L77" s="45"/>
       <c r="M77" s="46"/>
-      <c r="N77" s="112"/>
+      <c r="N77" s="97"/>
       <c r="O77" s="47"/>
       <c r="P77" s="46"/>
       <c r="Q77" s="45"/>
@@ -3217,7 +3217,7 @@
       <c r="C78" s="40"/>
       <c r="D78" s="41"/>
       <c r="E78" s="48"/>
-      <c r="F78" s="109"/>
+      <c r="F78" s="94"/>
       <c r="G78" s="49"/>
       <c r="H78" s="49"/>
       <c r="I78" s="49"/>
@@ -3225,7 +3225,7 @@
       <c r="K78" s="51"/>
       <c r="L78" s="45"/>
       <c r="M78" s="46"/>
-      <c r="N78" s="112"/>
+      <c r="N78" s="97"/>
       <c r="O78" s="47"/>
       <c r="P78" s="46"/>
       <c r="Q78" s="45"/>
@@ -3237,7 +3237,7 @@
       <c r="C79" s="40"/>
       <c r="D79" s="41"/>
       <c r="E79" s="48"/>
-      <c r="F79" s="109"/>
+      <c r="F79" s="94"/>
       <c r="G79" s="49"/>
       <c r="H79" s="49"/>
       <c r="I79" s="49"/>
@@ -3245,7 +3245,7 @@
       <c r="K79" s="51"/>
       <c r="L79" s="45"/>
       <c r="M79" s="46"/>
-      <c r="N79" s="112"/>
+      <c r="N79" s="97"/>
       <c r="O79" s="47"/>
       <c r="P79" s="46"/>
       <c r="Q79" s="45"/>
@@ -3257,7 +3257,7 @@
       <c r="C80" s="40"/>
       <c r="D80" s="41"/>
       <c r="E80" s="48"/>
-      <c r="F80" s="109"/>
+      <c r="F80" s="94"/>
       <c r="G80" s="49"/>
       <c r="H80" s="49"/>
       <c r="I80" s="49"/>
@@ -3265,7 +3265,7 @@
       <c r="K80" s="51"/>
       <c r="L80" s="45"/>
       <c r="M80" s="46"/>
-      <c r="N80" s="112"/>
+      <c r="N80" s="97"/>
       <c r="O80" s="47"/>
       <c r="P80" s="46"/>
       <c r="Q80" s="45"/>
@@ -3277,7 +3277,7 @@
       <c r="C81" s="40"/>
       <c r="D81" s="41"/>
       <c r="E81" s="48"/>
-      <c r="F81" s="109"/>
+      <c r="F81" s="94"/>
       <c r="G81" s="49"/>
       <c r="H81" s="49"/>
       <c r="I81" s="49"/>
@@ -3285,7 +3285,7 @@
       <c r="K81" s="51"/>
       <c r="L81" s="45"/>
       <c r="M81" s="46"/>
-      <c r="N81" s="112"/>
+      <c r="N81" s="97"/>
       <c r="O81" s="47"/>
       <c r="P81" s="46"/>
       <c r="Q81" s="45"/>
@@ -3297,7 +3297,7 @@
       <c r="C82" s="40"/>
       <c r="D82" s="41"/>
       <c r="E82" s="48"/>
-      <c r="F82" s="109"/>
+      <c r="F82" s="94"/>
       <c r="G82" s="49"/>
       <c r="H82" s="49"/>
       <c r="I82" s="49"/>
@@ -3305,7 +3305,7 @@
       <c r="K82" s="51"/>
       <c r="L82" s="45"/>
       <c r="M82" s="46"/>
-      <c r="N82" s="112"/>
+      <c r="N82" s="97"/>
       <c r="O82" s="47"/>
       <c r="P82" s="46"/>
       <c r="Q82" s="45"/>
@@ -3317,7 +3317,7 @@
       <c r="C83" s="40"/>
       <c r="D83" s="41"/>
       <c r="E83" s="48"/>
-      <c r="F83" s="109"/>
+      <c r="F83" s="94"/>
       <c r="G83" s="49"/>
       <c r="H83" s="49"/>
       <c r="I83" s="49"/>
@@ -3325,7 +3325,7 @@
       <c r="K83" s="51"/>
       <c r="L83" s="45"/>
       <c r="M83" s="46"/>
-      <c r="N83" s="112"/>
+      <c r="N83" s="97"/>
       <c r="O83" s="47"/>
       <c r="P83" s="46"/>
       <c r="Q83" s="45"/>
@@ -3337,7 +3337,7 @@
       <c r="C84" s="40"/>
       <c r="D84" s="41"/>
       <c r="E84" s="48"/>
-      <c r="F84" s="109"/>
+      <c r="F84" s="94"/>
       <c r="G84" s="49"/>
       <c r="H84" s="49"/>
       <c r="I84" s="49"/>
@@ -3345,7 +3345,7 @@
       <c r="K84" s="51"/>
       <c r="L84" s="45"/>
       <c r="M84" s="46"/>
-      <c r="N84" s="112"/>
+      <c r="N84" s="97"/>
       <c r="O84" s="47"/>
       <c r="P84" s="46"/>
       <c r="Q84" s="45"/>
@@ -3357,7 +3357,7 @@
       <c r="C85" s="40"/>
       <c r="D85" s="41"/>
       <c r="E85" s="48"/>
-      <c r="F85" s="109"/>
+      <c r="F85" s="94"/>
       <c r="G85" s="49"/>
       <c r="H85" s="49"/>
       <c r="I85" s="49"/>
@@ -3365,7 +3365,7 @@
       <c r="K85" s="51"/>
       <c r="L85" s="45"/>
       <c r="M85" s="46"/>
-      <c r="N85" s="112"/>
+      <c r="N85" s="97"/>
       <c r="O85" s="47"/>
       <c r="P85" s="46"/>
       <c r="Q85" s="45"/>
@@ -3377,7 +3377,7 @@
       <c r="C86" s="40"/>
       <c r="D86" s="41"/>
       <c r="E86" s="48"/>
-      <c r="F86" s="109"/>
+      <c r="F86" s="94"/>
       <c r="G86" s="49"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
@@ -3385,7 +3385,7 @@
       <c r="K86" s="51"/>
       <c r="L86" s="45"/>
       <c r="M86" s="46"/>
-      <c r="N86" s="112"/>
+      <c r="N86" s="97"/>
       <c r="O86" s="47"/>
       <c r="P86" s="46"/>
       <c r="Q86" s="45"/>
@@ -3397,7 +3397,7 @@
       <c r="C87" s="40"/>
       <c r="D87" s="41"/>
       <c r="E87" s="48"/>
-      <c r="F87" s="109"/>
+      <c r="F87" s="94"/>
       <c r="G87" s="49"/>
       <c r="H87" s="49"/>
       <c r="I87" s="49"/>
@@ -3405,7 +3405,7 @@
       <c r="K87" s="51"/>
       <c r="L87" s="45"/>
       <c r="M87" s="46"/>
-      <c r="N87" s="112"/>
+      <c r="N87" s="97"/>
       <c r="O87" s="47"/>
       <c r="P87" s="46"/>
       <c r="Q87" s="45"/>
@@ -3417,7 +3417,7 @@
       <c r="C88" s="40"/>
       <c r="D88" s="41"/>
       <c r="E88" s="48"/>
-      <c r="F88" s="109"/>
+      <c r="F88" s="94"/>
       <c r="G88" s="49"/>
       <c r="H88" s="49"/>
       <c r="I88" s="49"/>
@@ -3425,7 +3425,7 @@
       <c r="K88" s="51"/>
       <c r="L88" s="45"/>
       <c r="M88" s="46"/>
-      <c r="N88" s="112"/>
+      <c r="N88" s="97"/>
       <c r="O88" s="47"/>
       <c r="P88" s="46"/>
       <c r="Q88" s="45"/>
@@ -3437,7 +3437,7 @@
       <c r="C89" s="40"/>
       <c r="D89" s="41"/>
       <c r="E89" s="48"/>
-      <c r="F89" s="109"/>
+      <c r="F89" s="94"/>
       <c r="G89" s="49"/>
       <c r="H89" s="49"/>
       <c r="I89" s="49"/>
@@ -3445,7 +3445,7 @@
       <c r="K89" s="51"/>
       <c r="L89" s="45"/>
       <c r="M89" s="46"/>
-      <c r="N89" s="112"/>
+      <c r="N89" s="97"/>
       <c r="O89" s="47"/>
       <c r="P89" s="46"/>
       <c r="Q89" s="45"/>
@@ -3457,7 +3457,7 @@
       <c r="C90" s="40"/>
       <c r="D90" s="41"/>
       <c r="E90" s="48"/>
-      <c r="F90" s="109"/>
+      <c r="F90" s="94"/>
       <c r="G90" s="49"/>
       <c r="H90" s="49"/>
       <c r="I90" s="49"/>
@@ -3465,7 +3465,7 @@
       <c r="K90" s="51"/>
       <c r="L90" s="45"/>
       <c r="M90" s="46"/>
-      <c r="N90" s="112"/>
+      <c r="N90" s="97"/>
       <c r="O90" s="47"/>
       <c r="P90" s="46"/>
       <c r="Q90" s="45"/>
@@ -3477,7 +3477,7 @@
       <c r="C91" s="40"/>
       <c r="D91" s="41"/>
       <c r="E91" s="48"/>
-      <c r="F91" s="109"/>
+      <c r="F91" s="94"/>
       <c r="G91" s="49"/>
       <c r="H91" s="49"/>
       <c r="I91" s="49"/>
@@ -3485,7 +3485,7 @@
       <c r="K91" s="51"/>
       <c r="L91" s="45"/>
       <c r="M91" s="46"/>
-      <c r="N91" s="112"/>
+      <c r="N91" s="97"/>
       <c r="O91" s="47"/>
       <c r="P91" s="46"/>
       <c r="Q91" s="45"/>
@@ -3497,7 +3497,7 @@
       <c r="C92" s="40"/>
       <c r="D92" s="41"/>
       <c r="E92" s="48"/>
-      <c r="F92" s="109"/>
+      <c r="F92" s="94"/>
       <c r="G92" s="49"/>
       <c r="H92" s="49"/>
       <c r="I92" s="49"/>
@@ -3505,7 +3505,7 @@
       <c r="K92" s="51"/>
       <c r="L92" s="45"/>
       <c r="M92" s="46"/>
-      <c r="N92" s="112"/>
+      <c r="N92" s="97"/>
       <c r="O92" s="47"/>
       <c r="P92" s="46"/>
       <c r="Q92" s="45"/>
@@ -3517,7 +3517,7 @@
       <c r="C93" s="40"/>
       <c r="D93" s="41"/>
       <c r="E93" s="48"/>
-      <c r="F93" s="109"/>
+      <c r="F93" s="94"/>
       <c r="G93" s="49"/>
       <c r="H93" s="49"/>
       <c r="I93" s="49"/>
@@ -3525,7 +3525,7 @@
       <c r="K93" s="51"/>
       <c r="L93" s="45"/>
       <c r="M93" s="46"/>
-      <c r="N93" s="112"/>
+      <c r="N93" s="97"/>
       <c r="O93" s="47"/>
       <c r="P93" s="46"/>
       <c r="Q93" s="45"/>
@@ -3537,7 +3537,7 @@
       <c r="C94" s="40"/>
       <c r="D94" s="41"/>
       <c r="E94" s="48"/>
-      <c r="F94" s="109"/>
+      <c r="F94" s="94"/>
       <c r="G94" s="49"/>
       <c r="H94" s="49"/>
       <c r="I94" s="49"/>
@@ -3545,7 +3545,7 @@
       <c r="K94" s="51"/>
       <c r="L94" s="45"/>
       <c r="M94" s="46"/>
-      <c r="N94" s="112"/>
+      <c r="N94" s="97"/>
       <c r="O94" s="47"/>
       <c r="P94" s="46"/>
       <c r="Q94" s="45"/>
@@ -3557,7 +3557,7 @@
       <c r="C95" s="40"/>
       <c r="D95" s="41"/>
       <c r="E95" s="48"/>
-      <c r="F95" s="109"/>
+      <c r="F95" s="94"/>
       <c r="G95" s="49"/>
       <c r="H95" s="49"/>
       <c r="I95" s="49"/>
@@ -3565,7 +3565,7 @@
       <c r="K95" s="51"/>
       <c r="L95" s="45"/>
       <c r="M95" s="46"/>
-      <c r="N95" s="112"/>
+      <c r="N95" s="97"/>
       <c r="O95" s="47"/>
       <c r="P95" s="46"/>
       <c r="Q95" s="45"/>
@@ -3577,7 +3577,7 @@
       <c r="C96" s="40"/>
       <c r="D96" s="41"/>
       <c r="E96" s="48"/>
-      <c r="F96" s="109"/>
+      <c r="F96" s="94"/>
       <c r="G96" s="49"/>
       <c r="H96" s="49"/>
       <c r="I96" s="49"/>
@@ -3585,7 +3585,7 @@
       <c r="K96" s="51"/>
       <c r="L96" s="45"/>
       <c r="M96" s="46"/>
-      <c r="N96" s="112"/>
+      <c r="N96" s="97"/>
       <c r="O96" s="47"/>
       <c r="P96" s="46"/>
       <c r="Q96" s="45"/>
@@ -3597,7 +3597,7 @@
       <c r="C97" s="40"/>
       <c r="D97" s="41"/>
       <c r="E97" s="48"/>
-      <c r="F97" s="109"/>
+      <c r="F97" s="94"/>
       <c r="G97" s="49"/>
       <c r="H97" s="49"/>
       <c r="I97" s="49"/>
@@ -3605,7 +3605,7 @@
       <c r="K97" s="51"/>
       <c r="L97" s="45"/>
       <c r="M97" s="46"/>
-      <c r="N97" s="112"/>
+      <c r="N97" s="97"/>
       <c r="O97" s="47"/>
       <c r="P97" s="46"/>
       <c r="Q97" s="45"/>
@@ -3617,7 +3617,7 @@
       <c r="C98" s="40"/>
       <c r="D98" s="41"/>
       <c r="E98" s="48"/>
-      <c r="F98" s="109"/>
+      <c r="F98" s="94"/>
       <c r="G98" s="49"/>
       <c r="H98" s="49"/>
       <c r="I98" s="49"/>
@@ -3625,7 +3625,7 @@
       <c r="K98" s="51"/>
       <c r="L98" s="45"/>
       <c r="M98" s="46"/>
-      <c r="N98" s="112"/>
+      <c r="N98" s="97"/>
       <c r="O98" s="47"/>
       <c r="P98" s="46"/>
       <c r="Q98" s="45"/>
@@ -3637,7 +3637,7 @@
       <c r="C99" s="40"/>
       <c r="D99" s="41"/>
       <c r="E99" s="48"/>
-      <c r="F99" s="109"/>
+      <c r="F99" s="94"/>
       <c r="G99" s="49"/>
       <c r="H99" s="49"/>
       <c r="I99" s="49"/>
@@ -3645,7 +3645,7 @@
       <c r="K99" s="51"/>
       <c r="L99" s="45"/>
       <c r="M99" s="46"/>
-      <c r="N99" s="112"/>
+      <c r="N99" s="97"/>
       <c r="O99" s="47"/>
       <c r="P99" s="46"/>
       <c r="Q99" s="45"/>
@@ -3657,7 +3657,7 @@
       <c r="C100" s="40"/>
       <c r="D100" s="41"/>
       <c r="E100" s="48"/>
-      <c r="F100" s="109"/>
+      <c r="F100" s="94"/>
       <c r="G100" s="49"/>
       <c r="H100" s="49"/>
       <c r="I100" s="49"/>
@@ -3665,7 +3665,7 @@
       <c r="K100" s="51"/>
       <c r="L100" s="45"/>
       <c r="M100" s="46"/>
-      <c r="N100" s="112"/>
+      <c r="N100" s="97"/>
       <c r="O100" s="47"/>
       <c r="P100" s="46"/>
       <c r="Q100" s="45"/>
@@ -3677,7 +3677,7 @@
       <c r="C101" s="40"/>
       <c r="D101" s="41"/>
       <c r="E101" s="48"/>
-      <c r="F101" s="109"/>
+      <c r="F101" s="94"/>
       <c r="G101" s="49"/>
       <c r="H101" s="49"/>
       <c r="I101" s="49"/>
@@ -3685,7 +3685,7 @@
       <c r="K101" s="51"/>
       <c r="L101" s="45"/>
       <c r="M101" s="46"/>
-      <c r="N101" s="112"/>
+      <c r="N101" s="97"/>
       <c r="O101" s="47"/>
       <c r="P101" s="46"/>
       <c r="Q101" s="45"/>
@@ -3697,7 +3697,7 @@
       <c r="C102" s="52"/>
       <c r="D102" s="53"/>
       <c r="E102" s="54"/>
-      <c r="F102" s="110"/>
+      <c r="F102" s="95"/>
       <c r="G102" s="55"/>
       <c r="H102" s="55"/>
       <c r="I102" s="55"/>
@@ -3705,7 +3705,7 @@
       <c r="K102" s="57"/>
       <c r="L102" s="58"/>
       <c r="M102" s="59"/>
-      <c r="N102" s="113"/>
+      <c r="N102" s="98"/>
       <c r="O102" s="60"/>
       <c r="P102" s="59"/>
       <c r="Q102" s="58"/>
@@ -3722,8 +3722,8 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid concentration" error="1-30ng/µl is required for DNA samples. Leave blank for strains." prompt="1-30ng/µl is required for DNA samples. Leave blank for strains." sqref="D7:D102">
-      <formula1>1</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid concentration" error="1-30ng/µl is required for DNA samples. Leave blank for strains." prompt="0-30ng/µl is required for DNA samples. Leave blank for strains." sqref="D7:D102">
+      <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid volume" error="30-100µl volume is required for DNA samples. Leave blank for strains." prompt="30-100µl volume is required for DNA samples. Leave blank for strains." sqref="E7:E102">

--- a/source/portal/static/portal/excel/mng_excel_template_base.xlsx
+++ b/source/portal/static/portal/excel/mng_excel_template_base.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smithad/Projects/MicrobesNG/mng_django/source/portal/static/portal/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,13 +14,13 @@
     <definedName name="Types">#REF!</definedName>
     <definedName name="Typess">Data!$X$5:$X$7</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -482,7 +477,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -636,6 +631,18 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -968,10 +975,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1046,13 +1067,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1164,7 +1183,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1189,7 +1222,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1276,7 +1309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1311,7 +1344,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1488,7 +1521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1496,14 +1529,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
@@ -1526,65 +1559,65 @@
     <col min="19" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:26" ht="28.5" customHeight="1">
+      <c r="A1" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="108" t="s">
+      <c r="L1" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="110"/>
-    </row>
-    <row r="2" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="108"/>
+    </row>
+    <row r="2" spans="1:26" ht="41.25" customHeight="1">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="97" t="s">
         <v>133</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="107"/>
-      <c r="L2" s="104" t="s">
+      <c r="K2" s="105"/>
+      <c r="L2" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="105"/>
-      <c r="N2" s="111" t="s">
+      <c r="M2" s="103"/>
+      <c r="N2" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="112"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="102" t="s">
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="103"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="62" t="s">
+      <c r="R2" s="101"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="63"/>
+      <c r="B3" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -1605,7 +1638,7 @@
       <c r="H3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="61" t="s">
         <v>117</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -1636,9 +1669,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="61" t="s">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="22" t="s">
@@ -1659,7 +1692,7 @@
       <c r="H4" s="23">
         <v>4</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="62">
         <v>1990</v>
       </c>
       <c r="J4" s="25" t="s">
@@ -1688,8 +1721,8 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="65"/>
       <c r="B5" s="32" t="s">
         <v>15</v>
       </c>
@@ -1711,16 +1744,16 @@
       <c r="H5" s="23">
         <v>7</v>
       </c>
-      <c r="I5" s="88">
+      <c r="I5" s="86">
         <v>2006</v>
       </c>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="K5" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="L5" s="89"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="36"/>
       <c r="N5" s="37">
         <v>9606</v>
@@ -1742,43 +1775,43 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76" t="s">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79">
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77">
         <v>44752</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="76">
         <v>22</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="76">
         <v>12</v>
       </c>
-      <c r="I6" s="80">
+      <c r="I6" s="78">
         <v>2011</v>
       </c>
-      <c r="J6" s="90" t="s">
+      <c r="J6" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="91" t="s">
+      <c r="K6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="81"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="81" t="s">
+      <c r="L6" s="79"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="82" t="s">
+      <c r="R6" s="80" t="s">
         <v>125</v>
       </c>
       <c r="S6" s="2"/>
@@ -1790,34 +1823,34 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="85"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="66"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
       <c r="E7" s="40"/>
-      <c r="F7" s="94"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="74"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="40"/>
-      <c r="K7" s="73"/>
+      <c r="K7" s="71"/>
       <c r="L7" s="47"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="71"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="69"/>
       <c r="Q7" s="47"/>
-      <c r="R7" s="72"/>
+      <c r="R7" s="70"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="85"/>
+    <row r="8" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="94"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
@@ -1825,19 +1858,19 @@
       <c r="K8" s="44"/>
       <c r="L8" s="45"/>
       <c r="M8" s="46"/>
-      <c r="N8" s="97"/>
+      <c r="N8" s="95"/>
       <c r="O8" s="47"/>
       <c r="P8" s="46"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="46"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="85"/>
+    <row r="9" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="40"/>
       <c r="D9" s="41"/>
       <c r="E9" s="40"/>
-      <c r="F9" s="94"/>
+      <c r="F9" s="92"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
@@ -1845,19 +1878,19 @@
       <c r="K9" s="44"/>
       <c r="L9" s="45"/>
       <c r="M9" s="46"/>
-      <c r="N9" s="97"/>
+      <c r="N9" s="95"/>
       <c r="O9" s="47"/>
       <c r="P9" s="46"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="46"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="85"/>
+    <row r="10" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="40"/>
       <c r="D10" s="41"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="94"/>
+      <c r="F10" s="92"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -1865,19 +1898,19 @@
       <c r="K10" s="44"/>
       <c r="L10" s="45"/>
       <c r="M10" s="46"/>
-      <c r="N10" s="97"/>
+      <c r="N10" s="95"/>
       <c r="O10" s="47"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="46"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="85"/>
+    <row r="11" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
       <c r="E11" s="40"/>
-      <c r="F11" s="94"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
@@ -1885,19 +1918,19 @@
       <c r="K11" s="44"/>
       <c r="L11" s="45"/>
       <c r="M11" s="46"/>
-      <c r="N11" s="97"/>
+      <c r="N11" s="95"/>
       <c r="O11" s="47"/>
       <c r="P11" s="46"/>
       <c r="Q11" s="45"/>
       <c r="R11" s="46"/>
     </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="85"/>
+    <row r="12" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="66"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="40"/>
       <c r="D12" s="41"/>
       <c r="E12" s="40"/>
-      <c r="F12" s="94"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
@@ -1905,19 +1938,19 @@
       <c r="K12" s="44"/>
       <c r="L12" s="45"/>
       <c r="M12" s="46"/>
-      <c r="N12" s="97"/>
+      <c r="N12" s="95"/>
       <c r="O12" s="47"/>
       <c r="P12" s="46"/>
       <c r="Q12" s="45"/>
       <c r="R12" s="46"/>
     </row>
-    <row r="13" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
-      <c r="B13" s="85"/>
+    <row r="13" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A13" s="66"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="40"/>
       <c r="D13" s="41"/>
       <c r="E13" s="40"/>
-      <c r="F13" s="94"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
@@ -1925,1791 +1958,3411 @@
       <c r="K13" s="44"/>
       <c r="L13" s="45"/>
       <c r="M13" s="46"/>
-      <c r="N13" s="97"/>
+      <c r="N13" s="95"/>
       <c r="O13" s="47"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="46"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="85"/>
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A14" s="66"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="40"/>
       <c r="D14" s="41"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="45"/>
       <c r="M14" s="46"/>
-      <c r="N14" s="97"/>
+      <c r="N14" s="95"/>
       <c r="O14" s="47"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="45"/>
       <c r="R14" s="46"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="85"/>
+    <row r="15" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="66"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="40"/>
       <c r="D15" s="41"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="45"/>
       <c r="M15" s="46"/>
-      <c r="N15" s="97"/>
+      <c r="N15" s="95"/>
       <c r="O15" s="47"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="45"/>
       <c r="R15" s="46"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
-      <c r="B16" s="85"/>
+    <row r="16" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A16" s="66"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
       <c r="L16" s="45"/>
       <c r="M16" s="46"/>
-      <c r="N16" s="97"/>
+      <c r="N16" s="95"/>
       <c r="O16" s="47"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="46"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="85"/>
+    <row r="17" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="66"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="40"/>
       <c r="D17" s="41"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="45"/>
       <c r="M17" s="46"/>
-      <c r="N17" s="97"/>
+      <c r="N17" s="95"/>
       <c r="O17" s="47"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="45"/>
       <c r="R17" s="46"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="85"/>
+    <row r="18" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="66"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
       <c r="L18" s="45"/>
       <c r="M18" s="46"/>
-      <c r="N18" s="97"/>
+      <c r="N18" s="95"/>
       <c r="O18" s="47"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="45"/>
       <c r="R18" s="46"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
-      <c r="B19" s="85"/>
+    <row r="19" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="66"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="40"/>
       <c r="D19" s="41"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="51"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="45"/>
       <c r="M19" s="46"/>
-      <c r="N19" s="97"/>
+      <c r="N19" s="95"/>
       <c r="O19" s="47"/>
       <c r="P19" s="46"/>
       <c r="Q19" s="45"/>
       <c r="R19" s="46"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68"/>
-      <c r="B20" s="85"/>
+    <row r="20" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A20" s="66"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="40"/>
       <c r="D20" s="41"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="45"/>
       <c r="M20" s="46"/>
-      <c r="N20" s="97"/>
+      <c r="N20" s="95"/>
       <c r="O20" s="47"/>
       <c r="P20" s="46"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="46"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68"/>
-      <c r="B21" s="85"/>
+    <row r="21" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A21" s="66"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="45"/>
       <c r="M21" s="46"/>
-      <c r="N21" s="97"/>
+      <c r="N21" s="95"/>
       <c r="O21" s="47"/>
       <c r="P21" s="46"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="46"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
-      <c r="B22" s="85"/>
+    <row r="22" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A22" s="66"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="40"/>
       <c r="D22" s="41"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="51"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
       <c r="L22" s="45"/>
       <c r="M22" s="46"/>
-      <c r="N22" s="97"/>
+      <c r="N22" s="95"/>
       <c r="O22" s="47"/>
       <c r="P22" s="46"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="46"/>
     </row>
-    <row r="23" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="85"/>
+    <row r="23" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A23" s="66"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="40"/>
       <c r="D23" s="41"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="45"/>
       <c r="M23" s="46"/>
-      <c r="N23" s="97"/>
+      <c r="N23" s="95"/>
       <c r="O23" s="47"/>
       <c r="P23" s="46"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="46"/>
     </row>
-    <row r="24" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="68"/>
-      <c r="B24" s="85"/>
+    <row r="24" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A24" s="66"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="40"/>
       <c r="D24" s="41"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="51"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
       <c r="L24" s="45"/>
       <c r="M24" s="46"/>
-      <c r="N24" s="97"/>
+      <c r="N24" s="95"/>
       <c r="O24" s="47"/>
       <c r="P24" s="46"/>
       <c r="Q24" s="45"/>
       <c r="R24" s="46"/>
     </row>
-    <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="85"/>
+    <row r="25" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A25" s="66"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="40"/>
       <c r="D25" s="41"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="50"/>
       <c r="L25" s="45"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="97"/>
+      <c r="N25" s="95"/>
       <c r="O25" s="47"/>
       <c r="P25" s="46"/>
       <c r="Q25" s="45"/>
       <c r="R25" s="46"/>
     </row>
-    <row r="26" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="85"/>
+    <row r="26" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A26" s="66"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="40"/>
       <c r="D26" s="41"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="51"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="50"/>
       <c r="L26" s="45"/>
       <c r="M26" s="46"/>
-      <c r="N26" s="97"/>
+      <c r="N26" s="95"/>
       <c r="O26" s="47"/>
       <c r="P26" s="46"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="46"/>
     </row>
-    <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
-      <c r="B27" s="85"/>
+    <row r="27" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A27" s="66"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="51"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
       <c r="L27" s="45"/>
       <c r="M27" s="46"/>
-      <c r="N27" s="97"/>
+      <c r="N27" s="95"/>
       <c r="O27" s="47"/>
       <c r="P27" s="46"/>
       <c r="Q27" s="45"/>
       <c r="R27" s="46"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
-      <c r="B28" s="85"/>
+    <row r="28" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A28" s="66"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="51"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="45"/>
       <c r="M28" s="46"/>
-      <c r="N28" s="97"/>
+      <c r="N28" s="95"/>
       <c r="O28" s="47"/>
       <c r="P28" s="46"/>
       <c r="Q28" s="45"/>
       <c r="R28" s="46"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
-      <c r="B29" s="85"/>
+    <row r="29" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A29" s="66"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="40"/>
       <c r="D29" s="41"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="51"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="50"/>
       <c r="L29" s="45"/>
       <c r="M29" s="46"/>
-      <c r="N29" s="97"/>
+      <c r="N29" s="95"/>
       <c r="O29" s="47"/>
       <c r="P29" s="46"/>
       <c r="Q29" s="45"/>
       <c r="R29" s="46"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="68"/>
-      <c r="B30" s="85"/>
+    <row r="30" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="66"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="50"/>
       <c r="L30" s="45"/>
       <c r="M30" s="46"/>
-      <c r="N30" s="97"/>
+      <c r="N30" s="95"/>
       <c r="O30" s="47"/>
       <c r="P30" s="46"/>
       <c r="Q30" s="45"/>
       <c r="R30" s="46"/>
     </row>
-    <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
-      <c r="B31" s="85"/>
+    <row r="31" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A31" s="66"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="40"/>
       <c r="D31" s="41"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="51"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
       <c r="L31" s="45"/>
       <c r="M31" s="46"/>
-      <c r="N31" s="97"/>
+      <c r="N31" s="95"/>
       <c r="O31" s="47"/>
       <c r="P31" s="46"/>
       <c r="Q31" s="45"/>
       <c r="R31" s="46"/>
     </row>
-    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
-      <c r="B32" s="85"/>
+    <row r="32" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A32" s="66"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="50"/>
       <c r="L32" s="45"/>
       <c r="M32" s="46"/>
-      <c r="N32" s="97"/>
+      <c r="N32" s="95"/>
       <c r="O32" s="47"/>
       <c r="P32" s="46"/>
       <c r="Q32" s="45"/>
       <c r="R32" s="46"/>
     </row>
-    <row r="33" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
-      <c r="B33" s="85"/>
+    <row r="33" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A33" s="66"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="40"/>
       <c r="D33" s="41"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="51"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
       <c r="L33" s="45"/>
       <c r="M33" s="46"/>
-      <c r="N33" s="97"/>
+      <c r="N33" s="95"/>
       <c r="O33" s="47"/>
       <c r="P33" s="46"/>
       <c r="Q33" s="45"/>
       <c r="R33" s="46"/>
     </row>
-    <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
-      <c r="B34" s="85"/>
+    <row r="34" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A34" s="66"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="40"/>
       <c r="D34" s="41"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="51"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="50"/>
       <c r="L34" s="45"/>
       <c r="M34" s="46"/>
-      <c r="N34" s="97"/>
+      <c r="N34" s="95"/>
       <c r="O34" s="47"/>
       <c r="P34" s="46"/>
       <c r="Q34" s="45"/>
       <c r="R34" s="46"/>
     </row>
-    <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="68"/>
-      <c r="B35" s="85"/>
+    <row r="35" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A35" s="66"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="40"/>
       <c r="D35" s="41"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="51"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
       <c r="L35" s="45"/>
       <c r="M35" s="46"/>
-      <c r="N35" s="97"/>
+      <c r="N35" s="95"/>
       <c r="O35" s="47"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45"/>
       <c r="R35" s="46"/>
     </row>
-    <row r="36" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="68"/>
-      <c r="B36" s="85"/>
+    <row r="36" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="83"/>
       <c r="C36" s="40"/>
       <c r="D36" s="41"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="51"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="50"/>
       <c r="L36" s="45"/>
       <c r="M36" s="46"/>
-      <c r="N36" s="97"/>
+      <c r="N36" s="95"/>
       <c r="O36" s="47"/>
       <c r="P36" s="46"/>
       <c r="Q36" s="45"/>
       <c r="R36" s="46"/>
     </row>
-    <row r="37" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="68"/>
-      <c r="B37" s="85"/>
+    <row r="37" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="83"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="51"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="50"/>
       <c r="L37" s="45"/>
       <c r="M37" s="46"/>
-      <c r="N37" s="97"/>
+      <c r="N37" s="95"/>
       <c r="O37" s="47"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45"/>
       <c r="R37" s="46"/>
     </row>
-    <row r="38" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="68"/>
-      <c r="B38" s="85"/>
+    <row r="38" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A38" s="66"/>
+      <c r="B38" s="83"/>
       <c r="C38" s="40"/>
       <c r="D38" s="41"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="51"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="50"/>
       <c r="L38" s="45"/>
       <c r="M38" s="46"/>
-      <c r="N38" s="97"/>
+      <c r="N38" s="95"/>
       <c r="O38" s="47"/>
       <c r="P38" s="46"/>
       <c r="Q38" s="45"/>
       <c r="R38" s="46"/>
     </row>
-    <row r="39" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="68"/>
-      <c r="B39" s="85"/>
+    <row r="39" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A39" s="66"/>
+      <c r="B39" s="83"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="51"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="50"/>
       <c r="L39" s="45"/>
       <c r="M39" s="46"/>
-      <c r="N39" s="97"/>
+      <c r="N39" s="95"/>
       <c r="O39" s="47"/>
       <c r="P39" s="46"/>
       <c r="Q39" s="45"/>
       <c r="R39" s="46"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="68"/>
-      <c r="B40" s="85"/>
+    <row r="40" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A40" s="66"/>
+      <c r="B40" s="83"/>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="51"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="50"/>
       <c r="L40" s="45"/>
       <c r="M40" s="46"/>
-      <c r="N40" s="97"/>
+      <c r="N40" s="95"/>
       <c r="O40" s="47"/>
       <c r="P40" s="46"/>
       <c r="Q40" s="45"/>
       <c r="R40" s="46"/>
     </row>
-    <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68"/>
-      <c r="B41" s="85"/>
+    <row r="41" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A41" s="66"/>
+      <c r="B41" s="83"/>
       <c r="C41" s="40"/>
       <c r="D41" s="41"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="51"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="45"/>
       <c r="M41" s="46"/>
-      <c r="N41" s="97"/>
+      <c r="N41" s="95"/>
       <c r="O41" s="47"/>
       <c r="P41" s="46"/>
       <c r="Q41" s="45"/>
       <c r="R41" s="46"/>
     </row>
-    <row r="42" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="68"/>
-      <c r="B42" s="85"/>
+    <row r="42" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A42" s="66"/>
+      <c r="B42" s="83"/>
       <c r="C42" s="40"/>
       <c r="D42" s="41"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="51"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="50"/>
       <c r="L42" s="45"/>
       <c r="M42" s="46"/>
-      <c r="N42" s="97"/>
+      <c r="N42" s="95"/>
       <c r="O42" s="47"/>
       <c r="P42" s="46"/>
       <c r="Q42" s="45"/>
       <c r="R42" s="46"/>
     </row>
-    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68"/>
-      <c r="B43" s="85"/>
+    <row r="43" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A43" s="66"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="40"/>
       <c r="D43" s="41"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="51"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="50"/>
       <c r="L43" s="45"/>
       <c r="M43" s="46"/>
-      <c r="N43" s="97"/>
+      <c r="N43" s="95"/>
       <c r="O43" s="47"/>
       <c r="P43" s="46"/>
       <c r="Q43" s="45"/>
       <c r="R43" s="46"/>
     </row>
-    <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="68"/>
-      <c r="B44" s="85"/>
+    <row r="44" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A44" s="66"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="40"/>
       <c r="D44" s="41"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="51"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="50"/>
       <c r="L44" s="45"/>
       <c r="M44" s="46"/>
-      <c r="N44" s="97"/>
+      <c r="N44" s="95"/>
       <c r="O44" s="47"/>
       <c r="P44" s="46"/>
       <c r="Q44" s="45"/>
       <c r="R44" s="46"/>
     </row>
-    <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="68"/>
-      <c r="B45" s="85"/>
+    <row r="45" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A45" s="66"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="40"/>
       <c r="D45" s="41"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="51"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="50"/>
       <c r="L45" s="45"/>
       <c r="M45" s="46"/>
-      <c r="N45" s="97"/>
+      <c r="N45" s="95"/>
       <c r="O45" s="47"/>
       <c r="P45" s="46"/>
       <c r="Q45" s="45"/>
       <c r="R45" s="46"/>
     </row>
-    <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="68"/>
-      <c r="B46" s="85"/>
+    <row r="46" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A46" s="66"/>
+      <c r="B46" s="83"/>
       <c r="C46" s="40"/>
       <c r="D46" s="41"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="51"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="50"/>
       <c r="L46" s="45"/>
       <c r="M46" s="46"/>
-      <c r="N46" s="97"/>
+      <c r="N46" s="95"/>
       <c r="O46" s="47"/>
       <c r="P46" s="46"/>
       <c r="Q46" s="45"/>
       <c r="R46" s="46"/>
     </row>
-    <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68"/>
-      <c r="B47" s="85"/>
+    <row r="47" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A47" s="66"/>
+      <c r="B47" s="83"/>
       <c r="C47" s="40"/>
       <c r="D47" s="41"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="51"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="50"/>
       <c r="L47" s="45"/>
       <c r="M47" s="46"/>
-      <c r="N47" s="97"/>
+      <c r="N47" s="95"/>
       <c r="O47" s="47"/>
       <c r="P47" s="46"/>
       <c r="Q47" s="45"/>
       <c r="R47" s="46"/>
     </row>
-    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
-      <c r="B48" s="85"/>
+    <row r="48" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A48" s="66"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="40"/>
       <c r="D48" s="41"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="51"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="50"/>
       <c r="L48" s="45"/>
       <c r="M48" s="46"/>
-      <c r="N48" s="97"/>
+      <c r="N48" s="95"/>
       <c r="O48" s="47"/>
       <c r="P48" s="46"/>
       <c r="Q48" s="45"/>
       <c r="R48" s="46"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="68"/>
-      <c r="B49" s="85"/>
+    <row r="49" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A49" s="66"/>
+      <c r="B49" s="83"/>
       <c r="C49" s="40"/>
       <c r="D49" s="41"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="51"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="50"/>
       <c r="L49" s="45"/>
       <c r="M49" s="46"/>
-      <c r="N49" s="97"/>
+      <c r="N49" s="95"/>
       <c r="O49" s="47"/>
       <c r="P49" s="46"/>
       <c r="Q49" s="45"/>
       <c r="R49" s="46"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="68"/>
-      <c r="B50" s="85"/>
+    <row r="50" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A50" s="66"/>
+      <c r="B50" s="83"/>
       <c r="C50" s="40"/>
       <c r="D50" s="41"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="51"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="50"/>
       <c r="L50" s="45"/>
       <c r="M50" s="46"/>
-      <c r="N50" s="97"/>
+      <c r="N50" s="95"/>
       <c r="O50" s="47"/>
       <c r="P50" s="46"/>
       <c r="Q50" s="45"/>
       <c r="R50" s="46"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="68"/>
-      <c r="B51" s="85"/>
+    <row r="51" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A51" s="66"/>
+      <c r="B51" s="83"/>
       <c r="C51" s="40"/>
       <c r="D51" s="41"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="51"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="50"/>
       <c r="L51" s="45"/>
       <c r="M51" s="46"/>
-      <c r="N51" s="97"/>
+      <c r="N51" s="95"/>
       <c r="O51" s="47"/>
       <c r="P51" s="46"/>
       <c r="Q51" s="45"/>
       <c r="R51" s="46"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="68"/>
-      <c r="B52" s="85"/>
+    <row r="52" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A52" s="66"/>
+      <c r="B52" s="83"/>
       <c r="C52" s="40"/>
       <c r="D52" s="41"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="51"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="50"/>
       <c r="L52" s="45"/>
       <c r="M52" s="46"/>
-      <c r="N52" s="97"/>
+      <c r="N52" s="95"/>
       <c r="O52" s="47"/>
       <c r="P52" s="46"/>
       <c r="Q52" s="45"/>
       <c r="R52" s="46"/>
     </row>
-    <row r="53" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="68"/>
-      <c r="B53" s="85"/>
+    <row r="53" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A53" s="66"/>
+      <c r="B53" s="83"/>
       <c r="C53" s="40"/>
       <c r="D53" s="41"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="51"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="50"/>
       <c r="L53" s="45"/>
       <c r="M53" s="46"/>
-      <c r="N53" s="97"/>
+      <c r="N53" s="95"/>
       <c r="O53" s="47"/>
       <c r="P53" s="46"/>
       <c r="Q53" s="45"/>
       <c r="R53" s="46"/>
     </row>
-    <row r="54" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="68"/>
-      <c r="B54" s="85"/>
+    <row r="54" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A54" s="66"/>
+      <c r="B54" s="83"/>
       <c r="C54" s="40"/>
       <c r="D54" s="41"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="51"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="50"/>
       <c r="L54" s="45"/>
       <c r="M54" s="46"/>
-      <c r="N54" s="97"/>
+      <c r="N54" s="95"/>
       <c r="O54" s="47"/>
       <c r="P54" s="46"/>
       <c r="Q54" s="45"/>
       <c r="R54" s="46"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="68"/>
-      <c r="B55" s="85"/>
+    <row r="55" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A55" s="66"/>
+      <c r="B55" s="83"/>
       <c r="C55" s="40"/>
       <c r="D55" s="41"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="51"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="50"/>
       <c r="L55" s="45"/>
       <c r="M55" s="46"/>
-      <c r="N55" s="97"/>
+      <c r="N55" s="95"/>
       <c r="O55" s="47"/>
       <c r="P55" s="46"/>
       <c r="Q55" s="45"/>
       <c r="R55" s="46"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="68"/>
-      <c r="B56" s="85"/>
+    <row r="56" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A56" s="66"/>
+      <c r="B56" s="83"/>
       <c r="C56" s="40"/>
       <c r="D56" s="41"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="51"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="50"/>
       <c r="L56" s="45"/>
       <c r="M56" s="46"/>
-      <c r="N56" s="97"/>
+      <c r="N56" s="95"/>
       <c r="O56" s="47"/>
       <c r="P56" s="46"/>
       <c r="Q56" s="45"/>
       <c r="R56" s="46"/>
     </row>
-    <row r="57" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="68"/>
-      <c r="B57" s="85"/>
+    <row r="57" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A57" s="66"/>
+      <c r="B57" s="83"/>
       <c r="C57" s="40"/>
       <c r="D57" s="41"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="51"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="50"/>
       <c r="L57" s="45"/>
       <c r="M57" s="46"/>
-      <c r="N57" s="97"/>
+      <c r="N57" s="95"/>
       <c r="O57" s="47"/>
       <c r="P57" s="46"/>
       <c r="Q57" s="45"/>
       <c r="R57" s="46"/>
     </row>
-    <row r="58" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="68"/>
-      <c r="B58" s="85"/>
+    <row r="58" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A58" s="66"/>
+      <c r="B58" s="83"/>
       <c r="C58" s="40"/>
       <c r="D58" s="41"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="51"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="50"/>
       <c r="L58" s="45"/>
       <c r="M58" s="46"/>
-      <c r="N58" s="97"/>
+      <c r="N58" s="95"/>
       <c r="O58" s="47"/>
       <c r="P58" s="46"/>
       <c r="Q58" s="45"/>
       <c r="R58" s="46"/>
     </row>
-    <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="68"/>
-      <c r="B59" s="85"/>
+    <row r="59" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A59" s="66"/>
+      <c r="B59" s="83"/>
       <c r="C59" s="40"/>
       <c r="D59" s="41"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="51"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="50"/>
       <c r="L59" s="45"/>
       <c r="M59" s="46"/>
-      <c r="N59" s="97"/>
+      <c r="N59" s="95"/>
       <c r="O59" s="47"/>
       <c r="P59" s="46"/>
       <c r="Q59" s="45"/>
       <c r="R59" s="46"/>
     </row>
-    <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="68"/>
-      <c r="B60" s="85"/>
+    <row r="60" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A60" s="66"/>
+      <c r="B60" s="83"/>
       <c r="C60" s="40"/>
       <c r="D60" s="41"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="51"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="50"/>
       <c r="L60" s="45"/>
       <c r="M60" s="46"/>
-      <c r="N60" s="97"/>
+      <c r="N60" s="95"/>
       <c r="O60" s="47"/>
       <c r="P60" s="46"/>
       <c r="Q60" s="45"/>
       <c r="R60" s="46"/>
     </row>
-    <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="68"/>
-      <c r="B61" s="85"/>
+    <row r="61" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A61" s="66"/>
+      <c r="B61" s="83"/>
       <c r="C61" s="40"/>
       <c r="D61" s="41"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="51"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="50"/>
       <c r="L61" s="45"/>
       <c r="M61" s="46"/>
-      <c r="N61" s="97"/>
+      <c r="N61" s="95"/>
       <c r="O61" s="47"/>
       <c r="P61" s="46"/>
       <c r="Q61" s="45"/>
       <c r="R61" s="46"/>
     </row>
-    <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="68"/>
-      <c r="B62" s="85"/>
+    <row r="62" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A62" s="66"/>
+      <c r="B62" s="83"/>
       <c r="C62" s="40"/>
       <c r="D62" s="41"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="51"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="50"/>
       <c r="L62" s="45"/>
       <c r="M62" s="46"/>
-      <c r="N62" s="97"/>
+      <c r="N62" s="95"/>
       <c r="O62" s="47"/>
       <c r="P62" s="46"/>
       <c r="Q62" s="45"/>
       <c r="R62" s="46"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="68"/>
-      <c r="B63" s="85"/>
+    <row r="63" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A63" s="66"/>
+      <c r="B63" s="83"/>
       <c r="C63" s="40"/>
       <c r="D63" s="41"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="51"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="50"/>
       <c r="L63" s="45"/>
       <c r="M63" s="46"/>
-      <c r="N63" s="97"/>
+      <c r="N63" s="95"/>
       <c r="O63" s="47"/>
       <c r="P63" s="46"/>
       <c r="Q63" s="45"/>
       <c r="R63" s="46"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="68"/>
-      <c r="B64" s="85"/>
+    <row r="64" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A64" s="66"/>
+      <c r="B64" s="83"/>
       <c r="C64" s="40"/>
       <c r="D64" s="41"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="51"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="50"/>
       <c r="L64" s="45"/>
       <c r="M64" s="46"/>
-      <c r="N64" s="97"/>
+      <c r="N64" s="95"/>
       <c r="O64" s="47"/>
       <c r="P64" s="46"/>
       <c r="Q64" s="45"/>
       <c r="R64" s="46"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="68"/>
-      <c r="B65" s="85"/>
+    <row r="65" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A65" s="66"/>
+      <c r="B65" s="83"/>
       <c r="C65" s="40"/>
       <c r="D65" s="41"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="51"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="50"/>
       <c r="L65" s="45"/>
       <c r="M65" s="46"/>
-      <c r="N65" s="97"/>
+      <c r="N65" s="95"/>
       <c r="O65" s="47"/>
       <c r="P65" s="46"/>
       <c r="Q65" s="45"/>
       <c r="R65" s="46"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="68"/>
-      <c r="B66" s="85"/>
+    <row r="66" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A66" s="66"/>
+      <c r="B66" s="83"/>
       <c r="C66" s="40"/>
       <c r="D66" s="41"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="51"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="50"/>
       <c r="L66" s="45"/>
       <c r="M66" s="46"/>
-      <c r="N66" s="97"/>
+      <c r="N66" s="95"/>
       <c r="O66" s="47"/>
       <c r="P66" s="46"/>
       <c r="Q66" s="45"/>
       <c r="R66" s="46"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="68"/>
-      <c r="B67" s="85"/>
+    <row r="67" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A67" s="66"/>
+      <c r="B67" s="83"/>
       <c r="C67" s="40"/>
       <c r="D67" s="41"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="51"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="50"/>
       <c r="L67" s="45"/>
       <c r="M67" s="46"/>
-      <c r="N67" s="97"/>
+      <c r="N67" s="95"/>
       <c r="O67" s="47"/>
       <c r="P67" s="46"/>
       <c r="Q67" s="45"/>
       <c r="R67" s="46"/>
     </row>
-    <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="68"/>
-      <c r="B68" s="85"/>
+    <row r="68" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A68" s="66"/>
+      <c r="B68" s="83"/>
       <c r="C68" s="40"/>
       <c r="D68" s="41"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="51"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="50"/>
       <c r="L68" s="45"/>
       <c r="M68" s="46"/>
-      <c r="N68" s="97"/>
+      <c r="N68" s="95"/>
       <c r="O68" s="47"/>
       <c r="P68" s="46"/>
       <c r="Q68" s="45"/>
       <c r="R68" s="46"/>
     </row>
-    <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="68"/>
-      <c r="B69" s="85"/>
+    <row r="69" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A69" s="66"/>
+      <c r="B69" s="83"/>
       <c r="C69" s="40"/>
       <c r="D69" s="41"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="51"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="50"/>
       <c r="L69" s="45"/>
       <c r="M69" s="46"/>
-      <c r="N69" s="97"/>
+      <c r="N69" s="95"/>
       <c r="O69" s="47"/>
       <c r="P69" s="46"/>
       <c r="Q69" s="45"/>
       <c r="R69" s="46"/>
     </row>
-    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="68"/>
-      <c r="B70" s="85"/>
+    <row r="70" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A70" s="66"/>
+      <c r="B70" s="83"/>
       <c r="C70" s="40"/>
       <c r="D70" s="41"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="51"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="50"/>
       <c r="L70" s="45"/>
       <c r="M70" s="46"/>
-      <c r="N70" s="97"/>
+      <c r="N70" s="95"/>
       <c r="O70" s="47"/>
       <c r="P70" s="46"/>
       <c r="Q70" s="45"/>
       <c r="R70" s="46"/>
     </row>
-    <row r="71" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="68"/>
-      <c r="B71" s="85"/>
+    <row r="71" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A71" s="66"/>
+      <c r="B71" s="83"/>
       <c r="C71" s="40"/>
       <c r="D71" s="41"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="51"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="50"/>
       <c r="L71" s="45"/>
       <c r="M71" s="46"/>
-      <c r="N71" s="97"/>
+      <c r="N71" s="95"/>
       <c r="O71" s="47"/>
       <c r="P71" s="46"/>
       <c r="Q71" s="45"/>
       <c r="R71" s="46"/>
     </row>
-    <row r="72" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="68"/>
-      <c r="B72" s="85"/>
+    <row r="72" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A72" s="66"/>
+      <c r="B72" s="83"/>
       <c r="C72" s="40"/>
       <c r="D72" s="41"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="51"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="50"/>
       <c r="L72" s="45"/>
       <c r="M72" s="46"/>
-      <c r="N72" s="97"/>
+      <c r="N72" s="95"/>
       <c r="O72" s="47"/>
       <c r="P72" s="46"/>
       <c r="Q72" s="45"/>
       <c r="R72" s="46"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="68"/>
-      <c r="B73" s="85"/>
+    <row r="73" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A73" s="66"/>
+      <c r="B73" s="83"/>
       <c r="C73" s="40"/>
       <c r="D73" s="41"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="51"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="50"/>
       <c r="L73" s="45"/>
       <c r="M73" s="46"/>
-      <c r="N73" s="97"/>
+      <c r="N73" s="95"/>
       <c r="O73" s="47"/>
       <c r="P73" s="46"/>
       <c r="Q73" s="45"/>
       <c r="R73" s="46"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="68"/>
-      <c r="B74" s="85"/>
+    <row r="74" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A74" s="66"/>
+      <c r="B74" s="83"/>
       <c r="C74" s="40"/>
       <c r="D74" s="41"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="51"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="50"/>
       <c r="L74" s="45"/>
       <c r="M74" s="46"/>
-      <c r="N74" s="97"/>
+      <c r="N74" s="95"/>
       <c r="O74" s="47"/>
       <c r="P74" s="46"/>
       <c r="Q74" s="45"/>
       <c r="R74" s="46"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="68"/>
-      <c r="B75" s="85"/>
+    <row r="75" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A75" s="66"/>
+      <c r="B75" s="83"/>
       <c r="C75" s="40"/>
       <c r="D75" s="41"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="51"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="50"/>
       <c r="L75" s="45"/>
       <c r="M75" s="46"/>
-      <c r="N75" s="97"/>
+      <c r="N75" s="95"/>
       <c r="O75" s="47"/>
       <c r="P75" s="46"/>
       <c r="Q75" s="45"/>
       <c r="R75" s="46"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="68"/>
-      <c r="B76" s="85"/>
+    <row r="76" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A76" s="66"/>
+      <c r="B76" s="83"/>
       <c r="C76" s="40"/>
       <c r="D76" s="41"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="94"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="51"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="50"/>
       <c r="L76" s="45"/>
       <c r="M76" s="46"/>
-      <c r="N76" s="97"/>
+      <c r="N76" s="95"/>
       <c r="O76" s="47"/>
       <c r="P76" s="46"/>
       <c r="Q76" s="45"/>
       <c r="R76" s="46"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="68"/>
-      <c r="B77" s="85"/>
+    <row r="77" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A77" s="66"/>
+      <c r="B77" s="83"/>
       <c r="C77" s="40"/>
       <c r="D77" s="41"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="51"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="50"/>
       <c r="L77" s="45"/>
       <c r="M77" s="46"/>
-      <c r="N77" s="97"/>
+      <c r="N77" s="95"/>
       <c r="O77" s="47"/>
       <c r="P77" s="46"/>
       <c r="Q77" s="45"/>
       <c r="R77" s="46"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="68"/>
-      <c r="B78" s="85"/>
+    <row r="78" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A78" s="66"/>
+      <c r="B78" s="83"/>
       <c r="C78" s="40"/>
       <c r="D78" s="41"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="94"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="51"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="50"/>
       <c r="L78" s="45"/>
       <c r="M78" s="46"/>
-      <c r="N78" s="97"/>
+      <c r="N78" s="95"/>
       <c r="O78" s="47"/>
       <c r="P78" s="46"/>
       <c r="Q78" s="45"/>
       <c r="R78" s="46"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="68"/>
-      <c r="B79" s="85"/>
+    <row r="79" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A79" s="66"/>
+      <c r="B79" s="83"/>
       <c r="C79" s="40"/>
       <c r="D79" s="41"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="51"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="50"/>
       <c r="L79" s="45"/>
       <c r="M79" s="46"/>
-      <c r="N79" s="97"/>
+      <c r="N79" s="95"/>
       <c r="O79" s="47"/>
       <c r="P79" s="46"/>
       <c r="Q79" s="45"/>
       <c r="R79" s="46"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="68"/>
-      <c r="B80" s="85"/>
+    <row r="80" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A80" s="66"/>
+      <c r="B80" s="83"/>
       <c r="C80" s="40"/>
       <c r="D80" s="41"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="94"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="51"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="92"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="50"/>
       <c r="L80" s="45"/>
       <c r="M80" s="46"/>
-      <c r="N80" s="97"/>
+      <c r="N80" s="95"/>
       <c r="O80" s="47"/>
       <c r="P80" s="46"/>
       <c r="Q80" s="45"/>
       <c r="R80" s="46"/>
     </row>
-    <row r="81" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="68"/>
-      <c r="B81" s="85"/>
+    <row r="81" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A81" s="66"/>
+      <c r="B81" s="83"/>
       <c r="C81" s="40"/>
       <c r="D81" s="41"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="51"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="92"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="50"/>
       <c r="L81" s="45"/>
       <c r="M81" s="46"/>
-      <c r="N81" s="97"/>
+      <c r="N81" s="95"/>
       <c r="O81" s="47"/>
       <c r="P81" s="46"/>
       <c r="Q81" s="45"/>
       <c r="R81" s="46"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="68"/>
-      <c r="B82" s="85"/>
+    <row r="82" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A82" s="66"/>
+      <c r="B82" s="83"/>
       <c r="C82" s="40"/>
       <c r="D82" s="41"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="94"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="51"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="92"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="49"/>
+      <c r="K82" s="50"/>
       <c r="L82" s="45"/>
       <c r="M82" s="46"/>
-      <c r="N82" s="97"/>
+      <c r="N82" s="95"/>
       <c r="O82" s="47"/>
       <c r="P82" s="46"/>
       <c r="Q82" s="45"/>
       <c r="R82" s="46"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="68"/>
-      <c r="B83" s="85"/>
+    <row r="83" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A83" s="66"/>
+      <c r="B83" s="83"/>
       <c r="C83" s="40"/>
       <c r="D83" s="41"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="51"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="50"/>
       <c r="L83" s="45"/>
       <c r="M83" s="46"/>
-      <c r="N83" s="97"/>
+      <c r="N83" s="95"/>
       <c r="O83" s="47"/>
       <c r="P83" s="46"/>
       <c r="Q83" s="45"/>
       <c r="R83" s="46"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="68"/>
-      <c r="B84" s="85"/>
+    <row r="84" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A84" s="66"/>
+      <c r="B84" s="83"/>
       <c r="C84" s="40"/>
       <c r="D84" s="41"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="51"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="92"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="50"/>
       <c r="L84" s="45"/>
       <c r="M84" s="46"/>
-      <c r="N84" s="97"/>
+      <c r="N84" s="95"/>
       <c r="O84" s="47"/>
       <c r="P84" s="46"/>
       <c r="Q84" s="45"/>
       <c r="R84" s="46"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="68"/>
-      <c r="B85" s="85"/>
+    <row r="85" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A85" s="66"/>
+      <c r="B85" s="83"/>
       <c r="C85" s="40"/>
       <c r="D85" s="41"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="51"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="50"/>
       <c r="L85" s="45"/>
       <c r="M85" s="46"/>
-      <c r="N85" s="97"/>
+      <c r="N85" s="95"/>
       <c r="O85" s="47"/>
       <c r="P85" s="46"/>
       <c r="Q85" s="45"/>
       <c r="R85" s="46"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="68"/>
-      <c r="B86" s="85"/>
+    <row r="86" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A86" s="66"/>
+      <c r="B86" s="83"/>
       <c r="C86" s="40"/>
       <c r="D86" s="41"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="51"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="50"/>
       <c r="L86" s="45"/>
       <c r="M86" s="46"/>
-      <c r="N86" s="97"/>
+      <c r="N86" s="95"/>
       <c r="O86" s="47"/>
       <c r="P86" s="46"/>
       <c r="Q86" s="45"/>
       <c r="R86" s="46"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="68"/>
-      <c r="B87" s="85"/>
+    <row r="87" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A87" s="66"/>
+      <c r="B87" s="83"/>
       <c r="C87" s="40"/>
       <c r="D87" s="41"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="94"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="51"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="50"/>
       <c r="L87" s="45"/>
       <c r="M87" s="46"/>
-      <c r="N87" s="97"/>
+      <c r="N87" s="95"/>
       <c r="O87" s="47"/>
       <c r="P87" s="46"/>
       <c r="Q87" s="45"/>
       <c r="R87" s="46"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="68"/>
-      <c r="B88" s="85"/>
+    <row r="88" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A88" s="66"/>
+      <c r="B88" s="83"/>
       <c r="C88" s="40"/>
       <c r="D88" s="41"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="94"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="51"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="92"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="50"/>
       <c r="L88" s="45"/>
       <c r="M88" s="46"/>
-      <c r="N88" s="97"/>
+      <c r="N88" s="95"/>
       <c r="O88" s="47"/>
       <c r="P88" s="46"/>
       <c r="Q88" s="45"/>
       <c r="R88" s="46"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="68"/>
-      <c r="B89" s="85"/>
+    <row r="89" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A89" s="66"/>
+      <c r="B89" s="83"/>
       <c r="C89" s="40"/>
       <c r="D89" s="41"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="94"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="51"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="44"/>
       <c r="L89" s="45"/>
       <c r="M89" s="46"/>
-      <c r="N89" s="97"/>
+      <c r="N89" s="95"/>
       <c r="O89" s="47"/>
       <c r="P89" s="46"/>
       <c r="Q89" s="45"/>
       <c r="R89" s="46"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="68"/>
-      <c r="B90" s="85"/>
+    <row r="90" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A90" s="66"/>
+      <c r="B90" s="83"/>
       <c r="C90" s="40"/>
       <c r="D90" s="41"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="94"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="51"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="92"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="44"/>
       <c r="L90" s="45"/>
       <c r="M90" s="46"/>
-      <c r="N90" s="97"/>
+      <c r="N90" s="95"/>
       <c r="O90" s="47"/>
       <c r="P90" s="46"/>
       <c r="Q90" s="45"/>
       <c r="R90" s="46"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="68"/>
-      <c r="B91" s="85"/>
+    <row r="91" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A91" s="66"/>
+      <c r="B91" s="83"/>
       <c r="C91" s="40"/>
       <c r="D91" s="41"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="94"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="51"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="44"/>
       <c r="L91" s="45"/>
       <c r="M91" s="46"/>
-      <c r="N91" s="97"/>
+      <c r="N91" s="95"/>
       <c r="O91" s="47"/>
       <c r="P91" s="46"/>
       <c r="Q91" s="45"/>
       <c r="R91" s="46"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="68"/>
-      <c r="B92" s="85"/>
+    <row r="92" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A92" s="66"/>
+      <c r="B92" s="83"/>
       <c r="C92" s="40"/>
       <c r="D92" s="41"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="94"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="51"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="44"/>
       <c r="L92" s="45"/>
       <c r="M92" s="46"/>
-      <c r="N92" s="97"/>
+      <c r="N92" s="95"/>
       <c r="O92" s="47"/>
       <c r="P92" s="46"/>
       <c r="Q92" s="45"/>
       <c r="R92" s="46"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="68"/>
-      <c r="B93" s="85"/>
+    <row r="93" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A93" s="66"/>
+      <c r="B93" s="83"/>
       <c r="C93" s="40"/>
       <c r="D93" s="41"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="94"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="50"/>
-      <c r="K93" s="51"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="92"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="44"/>
       <c r="L93" s="45"/>
       <c r="M93" s="46"/>
-      <c r="N93" s="97"/>
+      <c r="N93" s="95"/>
       <c r="O93" s="47"/>
       <c r="P93" s="46"/>
       <c r="Q93" s="45"/>
       <c r="R93" s="46"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="68"/>
-      <c r="B94" s="85"/>
+    <row r="94" spans="1:18" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A94" s="66"/>
+      <c r="B94" s="83"/>
       <c r="C94" s="40"/>
       <c r="D94" s="41"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="94"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="51"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="44"/>
       <c r="L94" s="45"/>
       <c r="M94" s="46"/>
-      <c r="N94" s="97"/>
+      <c r="N94" s="95"/>
       <c r="O94" s="47"/>
       <c r="P94" s="46"/>
       <c r="Q94" s="45"/>
       <c r="R94" s="46"/>
     </row>
-    <row r="95" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="68"/>
-      <c r="B95" s="85"/>
+    <row r="95" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A95" s="66"/>
+      <c r="B95" s="83"/>
       <c r="C95" s="40"/>
       <c r="D95" s="41"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="94"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="51"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="50"/>
       <c r="L95" s="45"/>
       <c r="M95" s="46"/>
-      <c r="N95" s="97"/>
+      <c r="N95" s="95"/>
       <c r="O95" s="47"/>
       <c r="P95" s="46"/>
       <c r="Q95" s="45"/>
       <c r="R95" s="46"/>
     </row>
-    <row r="96" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="68"/>
-      <c r="B96" s="85"/>
+    <row r="96" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A96" s="66"/>
+      <c r="B96" s="83"/>
       <c r="C96" s="40"/>
       <c r="D96" s="41"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="94"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="51"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="50"/>
       <c r="L96" s="45"/>
       <c r="M96" s="46"/>
-      <c r="N96" s="97"/>
+      <c r="N96" s="95"/>
       <c r="O96" s="47"/>
       <c r="P96" s="46"/>
       <c r="Q96" s="45"/>
       <c r="R96" s="46"/>
     </row>
-    <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="68"/>
-      <c r="B97" s="85"/>
+    <row r="97" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A97" s="66"/>
+      <c r="B97" s="83"/>
       <c r="C97" s="40"/>
       <c r="D97" s="41"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="94"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="51"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="48"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="50"/>
       <c r="L97" s="45"/>
       <c r="M97" s="46"/>
-      <c r="N97" s="97"/>
+      <c r="N97" s="95"/>
       <c r="O97" s="47"/>
       <c r="P97" s="46"/>
       <c r="Q97" s="45"/>
       <c r="R97" s="46"/>
     </row>
-    <row r="98" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="68"/>
-      <c r="B98" s="85"/>
+    <row r="98" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A98" s="66"/>
+      <c r="B98" s="83"/>
       <c r="C98" s="40"/>
       <c r="D98" s="41"/>
-      <c r="E98" s="48"/>
-      <c r="F98" s="94"/>
-      <c r="G98" s="49"/>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="51"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="50"/>
       <c r="L98" s="45"/>
       <c r="M98" s="46"/>
-      <c r="N98" s="97"/>
+      <c r="N98" s="95"/>
       <c r="O98" s="47"/>
       <c r="P98" s="46"/>
       <c r="Q98" s="45"/>
       <c r="R98" s="46"/>
     </row>
-    <row r="99" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="68"/>
-      <c r="B99" s="85"/>
+    <row r="99" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A99" s="66"/>
+      <c r="B99" s="83"/>
       <c r="C99" s="40"/>
       <c r="D99" s="41"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="94"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="51"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="50"/>
       <c r="L99" s="45"/>
       <c r="M99" s="46"/>
-      <c r="N99" s="97"/>
+      <c r="N99" s="95"/>
       <c r="O99" s="47"/>
       <c r="P99" s="46"/>
       <c r="Q99" s="45"/>
       <c r="R99" s="46"/>
     </row>
-    <row r="100" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="68"/>
-      <c r="B100" s="85"/>
+    <row r="100" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A100" s="66"/>
+      <c r="B100" s="83"/>
       <c r="C100" s="40"/>
       <c r="D100" s="41"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="94"/>
-      <c r="G100" s="49"/>
-      <c r="H100" s="49"/>
-      <c r="I100" s="49"/>
-      <c r="J100" s="50"/>
-      <c r="K100" s="51"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="50"/>
       <c r="L100" s="45"/>
       <c r="M100" s="46"/>
-      <c r="N100" s="97"/>
+      <c r="N100" s="95"/>
       <c r="O100" s="47"/>
       <c r="P100" s="46"/>
       <c r="Q100" s="45"/>
       <c r="R100" s="46"/>
     </row>
-    <row r="101" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="68"/>
-      <c r="B101" s="85"/>
+    <row r="101" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A101" s="66"/>
+      <c r="B101" s="83"/>
       <c r="C101" s="40"/>
       <c r="D101" s="41"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="94"/>
-      <c r="G101" s="49"/>
-      <c r="H101" s="49"/>
-      <c r="I101" s="49"/>
-      <c r="J101" s="50"/>
-      <c r="K101" s="51"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="49"/>
+      <c r="K101" s="50"/>
       <c r="L101" s="45"/>
       <c r="M101" s="46"/>
-      <c r="N101" s="97"/>
+      <c r="N101" s="95"/>
       <c r="O101" s="47"/>
       <c r="P101" s="46"/>
       <c r="Q101" s="45"/>
       <c r="R101" s="46"/>
     </row>
-    <row r="102" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="69"/>
-      <c r="B102" s="86"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="95"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="55"/>
-      <c r="J102" s="56"/>
-      <c r="K102" s="57"/>
-      <c r="L102" s="58"/>
-      <c r="M102" s="59"/>
-      <c r="N102" s="98"/>
-      <c r="O102" s="60"/>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="58"/>
-      <c r="R102" s="59"/>
+    <row r="102" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A102" s="66"/>
+      <c r="B102" s="83"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="49"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="45"/>
+      <c r="M102" s="46"/>
+      <c r="N102" s="95"/>
+      <c r="O102" s="47"/>
+      <c r="P102" s="46"/>
+      <c r="Q102" s="45"/>
+      <c r="R102" s="46"/>
+    </row>
+    <row r="103" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A103" s="66"/>
+      <c r="B103" s="83"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="45"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="95"/>
+      <c r="O103" s="47"/>
+      <c r="P103" s="46"/>
+      <c r="Q103" s="45"/>
+      <c r="R103" s="46"/>
+    </row>
+    <row r="104" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A104" s="66"/>
+      <c r="B104" s="83"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="49"/>
+      <c r="K104" s="50"/>
+      <c r="L104" s="45"/>
+      <c r="M104" s="46"/>
+      <c r="N104" s="95"/>
+      <c r="O104" s="47"/>
+      <c r="P104" s="46"/>
+      <c r="Q104" s="45"/>
+      <c r="R104" s="46"/>
+    </row>
+    <row r="105" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A105" s="66"/>
+      <c r="B105" s="83"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="45"/>
+      <c r="M105" s="46"/>
+      <c r="N105" s="95"/>
+      <c r="O105" s="47"/>
+      <c r="P105" s="46"/>
+      <c r="Q105" s="45"/>
+      <c r="R105" s="46"/>
+    </row>
+    <row r="106" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A106" s="66"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="92"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="49"/>
+      <c r="K106" s="50"/>
+      <c r="L106" s="45"/>
+      <c r="M106" s="46"/>
+      <c r="N106" s="95"/>
+      <c r="O106" s="47"/>
+      <c r="P106" s="46"/>
+      <c r="Q106" s="45"/>
+      <c r="R106" s="46"/>
+    </row>
+    <row r="107" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A107" s="66"/>
+      <c r="B107" s="83"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+      <c r="J107" s="49"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="45"/>
+      <c r="M107" s="46"/>
+      <c r="N107" s="95"/>
+      <c r="O107" s="47"/>
+      <c r="P107" s="46"/>
+      <c r="Q107" s="45"/>
+      <c r="R107" s="46"/>
+    </row>
+    <row r="108" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A108" s="66"/>
+      <c r="B108" s="83"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="45"/>
+      <c r="M108" s="46"/>
+      <c r="N108" s="95"/>
+      <c r="O108" s="47"/>
+      <c r="P108" s="46"/>
+      <c r="Q108" s="45"/>
+      <c r="R108" s="46"/>
+    </row>
+    <row r="109" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A109" s="66"/>
+      <c r="B109" s="83"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="92"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="49"/>
+      <c r="K109" s="50"/>
+      <c r="L109" s="45"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="95"/>
+      <c r="O109" s="47"/>
+      <c r="P109" s="46"/>
+      <c r="Q109" s="45"/>
+      <c r="R109" s="46"/>
+    </row>
+    <row r="110" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A110" s="66"/>
+      <c r="B110" s="83"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="92"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="49"/>
+      <c r="K110" s="50"/>
+      <c r="L110" s="45"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="95"/>
+      <c r="O110" s="47"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="45"/>
+      <c r="R110" s="46"/>
+    </row>
+    <row r="111" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A111" s="66"/>
+      <c r="B111" s="83"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="92"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="48"/>
+      <c r="J111" s="49"/>
+      <c r="K111" s="50"/>
+      <c r="L111" s="45"/>
+      <c r="M111" s="46"/>
+      <c r="N111" s="95"/>
+      <c r="O111" s="47"/>
+      <c r="P111" s="46"/>
+      <c r="Q111" s="45"/>
+      <c r="R111" s="46"/>
+    </row>
+    <row r="112" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A112" s="66"/>
+      <c r="B112" s="83"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="92"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="48"/>
+      <c r="J112" s="49"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="45"/>
+      <c r="M112" s="46"/>
+      <c r="N112" s="95"/>
+      <c r="O112" s="47"/>
+      <c r="P112" s="46"/>
+      <c r="Q112" s="45"/>
+      <c r="R112" s="46"/>
+    </row>
+    <row r="113" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A113" s="66"/>
+      <c r="B113" s="83"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="92"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="48"/>
+      <c r="J113" s="49"/>
+      <c r="K113" s="50"/>
+      <c r="L113" s="45"/>
+      <c r="M113" s="46"/>
+      <c r="N113" s="95"/>
+      <c r="O113" s="47"/>
+      <c r="P113" s="46"/>
+      <c r="Q113" s="45"/>
+      <c r="R113" s="46"/>
+    </row>
+    <row r="114" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A114" s="66"/>
+      <c r="B114" s="83"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="92"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="48"/>
+      <c r="J114" s="49"/>
+      <c r="K114" s="50"/>
+      <c r="L114" s="45"/>
+      <c r="M114" s="46"/>
+      <c r="N114" s="95"/>
+      <c r="O114" s="47"/>
+      <c r="P114" s="46"/>
+      <c r="Q114" s="45"/>
+      <c r="R114" s="46"/>
+    </row>
+    <row r="115" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A115" s="66"/>
+      <c r="B115" s="83"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="40"/>
+      <c r="F115" s="92"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="48"/>
+      <c r="I115" s="48"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="50"/>
+      <c r="L115" s="45"/>
+      <c r="M115" s="46"/>
+      <c r="N115" s="95"/>
+      <c r="O115" s="47"/>
+      <c r="P115" s="46"/>
+      <c r="Q115" s="45"/>
+      <c r="R115" s="46"/>
+    </row>
+    <row r="116" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A116" s="66"/>
+      <c r="B116" s="83"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="92"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="48"/>
+      <c r="I116" s="48"/>
+      <c r="J116" s="49"/>
+      <c r="K116" s="50"/>
+      <c r="L116" s="45"/>
+      <c r="M116" s="46"/>
+      <c r="N116" s="95"/>
+      <c r="O116" s="47"/>
+      <c r="P116" s="46"/>
+      <c r="Q116" s="45"/>
+      <c r="R116" s="46"/>
+    </row>
+    <row r="117" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A117" s="66"/>
+      <c r="B117" s="83"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="92"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="48"/>
+      <c r="I117" s="48"/>
+      <c r="J117" s="49"/>
+      <c r="K117" s="50"/>
+      <c r="L117" s="45"/>
+      <c r="M117" s="46"/>
+      <c r="N117" s="95"/>
+      <c r="O117" s="47"/>
+      <c r="P117" s="46"/>
+      <c r="Q117" s="45"/>
+      <c r="R117" s="46"/>
+    </row>
+    <row r="118" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A118" s="66"/>
+      <c r="B118" s="83"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="92"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
+      <c r="J118" s="49"/>
+      <c r="K118" s="50"/>
+      <c r="L118" s="45"/>
+      <c r="M118" s="46"/>
+      <c r="N118" s="95"/>
+      <c r="O118" s="47"/>
+      <c r="P118" s="46"/>
+      <c r="Q118" s="45"/>
+      <c r="R118" s="46"/>
+    </row>
+    <row r="119" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A119" s="66"/>
+      <c r="B119" s="83"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="92"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="49"/>
+      <c r="K119" s="50"/>
+      <c r="L119" s="45"/>
+      <c r="M119" s="46"/>
+      <c r="N119" s="95"/>
+      <c r="O119" s="47"/>
+      <c r="P119" s="46"/>
+      <c r="Q119" s="45"/>
+      <c r="R119" s="46"/>
+    </row>
+    <row r="120" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A120" s="66"/>
+      <c r="B120" s="83"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="92"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="48"/>
+      <c r="J120" s="49"/>
+      <c r="K120" s="50"/>
+      <c r="L120" s="45"/>
+      <c r="M120" s="46"/>
+      <c r="N120" s="95"/>
+      <c r="O120" s="47"/>
+      <c r="P120" s="46"/>
+      <c r="Q120" s="45"/>
+      <c r="R120" s="46"/>
+    </row>
+    <row r="121" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A121" s="66"/>
+      <c r="B121" s="83"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="92"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="49"/>
+      <c r="K121" s="50"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="46"/>
+      <c r="N121" s="95"/>
+      <c r="O121" s="47"/>
+      <c r="P121" s="46"/>
+      <c r="Q121" s="45"/>
+      <c r="R121" s="46"/>
+    </row>
+    <row r="122" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A122" s="66"/>
+      <c r="B122" s="83"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="92"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="49"/>
+      <c r="K122" s="50"/>
+      <c r="L122" s="45"/>
+      <c r="M122" s="46"/>
+      <c r="N122" s="95"/>
+      <c r="O122" s="47"/>
+      <c r="P122" s="46"/>
+      <c r="Q122" s="45"/>
+      <c r="R122" s="46"/>
+    </row>
+    <row r="123" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A123" s="66"/>
+      <c r="B123" s="83"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="92"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="49"/>
+      <c r="K123" s="50"/>
+      <c r="L123" s="45"/>
+      <c r="M123" s="46"/>
+      <c r="N123" s="95"/>
+      <c r="O123" s="47"/>
+      <c r="P123" s="46"/>
+      <c r="Q123" s="45"/>
+      <c r="R123" s="46"/>
+    </row>
+    <row r="124" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A124" s="66"/>
+      <c r="B124" s="83"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="92"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="49"/>
+      <c r="K124" s="50"/>
+      <c r="L124" s="45"/>
+      <c r="M124" s="46"/>
+      <c r="N124" s="95"/>
+      <c r="O124" s="47"/>
+      <c r="P124" s="46"/>
+      <c r="Q124" s="45"/>
+      <c r="R124" s="46"/>
+    </row>
+    <row r="125" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A125" s="66"/>
+      <c r="B125" s="83"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="92"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="49"/>
+      <c r="K125" s="50"/>
+      <c r="L125" s="45"/>
+      <c r="M125" s="46"/>
+      <c r="N125" s="95"/>
+      <c r="O125" s="47"/>
+      <c r="P125" s="46"/>
+      <c r="Q125" s="45"/>
+      <c r="R125" s="46"/>
+    </row>
+    <row r="126" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A126" s="66"/>
+      <c r="B126" s="83"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="92"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="49"/>
+      <c r="K126" s="50"/>
+      <c r="L126" s="45"/>
+      <c r="M126" s="46"/>
+      <c r="N126" s="95"/>
+      <c r="O126" s="47"/>
+      <c r="P126" s="46"/>
+      <c r="Q126" s="45"/>
+      <c r="R126" s="46"/>
+    </row>
+    <row r="127" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A127" s="66"/>
+      <c r="B127" s="83"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="92"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="48"/>
+      <c r="J127" s="49"/>
+      <c r="K127" s="50"/>
+      <c r="L127" s="45"/>
+      <c r="M127" s="46"/>
+      <c r="N127" s="95"/>
+      <c r="O127" s="47"/>
+      <c r="P127" s="46"/>
+      <c r="Q127" s="45"/>
+      <c r="R127" s="46"/>
+    </row>
+    <row r="128" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A128" s="66"/>
+      <c r="B128" s="83"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="40"/>
+      <c r="F128" s="92"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="48"/>
+      <c r="I128" s="48"/>
+      <c r="J128" s="49"/>
+      <c r="K128" s="50"/>
+      <c r="L128" s="45"/>
+      <c r="M128" s="46"/>
+      <c r="N128" s="95"/>
+      <c r="O128" s="47"/>
+      <c r="P128" s="46"/>
+      <c r="Q128" s="45"/>
+      <c r="R128" s="46"/>
+    </row>
+    <row r="129" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A129" s="66"/>
+      <c r="B129" s="83"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="92"/>
+      <c r="G129" s="48"/>
+      <c r="H129" s="48"/>
+      <c r="I129" s="48"/>
+      <c r="J129" s="49"/>
+      <c r="K129" s="50"/>
+      <c r="L129" s="45"/>
+      <c r="M129" s="46"/>
+      <c r="N129" s="95"/>
+      <c r="O129" s="47"/>
+      <c r="P129" s="46"/>
+      <c r="Q129" s="45"/>
+      <c r="R129" s="46"/>
+    </row>
+    <row r="130" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A130" s="66"/>
+      <c r="B130" s="83"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="40"/>
+      <c r="F130" s="92"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="48"/>
+      <c r="J130" s="49"/>
+      <c r="K130" s="50"/>
+      <c r="L130" s="45"/>
+      <c r="M130" s="46"/>
+      <c r="N130" s="95"/>
+      <c r="O130" s="47"/>
+      <c r="P130" s="46"/>
+      <c r="Q130" s="45"/>
+      <c r="R130" s="46"/>
+    </row>
+    <row r="131" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A131" s="66"/>
+      <c r="B131" s="83"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="92"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="48"/>
+      <c r="I131" s="48"/>
+      <c r="J131" s="49"/>
+      <c r="K131" s="50"/>
+      <c r="L131" s="45"/>
+      <c r="M131" s="46"/>
+      <c r="N131" s="95"/>
+      <c r="O131" s="47"/>
+      <c r="P131" s="46"/>
+      <c r="Q131" s="45"/>
+      <c r="R131" s="46"/>
+    </row>
+    <row r="132" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A132" s="66"/>
+      <c r="B132" s="83"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="92"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="48"/>
+      <c r="I132" s="48"/>
+      <c r="J132" s="49"/>
+      <c r="K132" s="50"/>
+      <c r="L132" s="45"/>
+      <c r="M132" s="46"/>
+      <c r="N132" s="95"/>
+      <c r="O132" s="47"/>
+      <c r="P132" s="46"/>
+      <c r="Q132" s="45"/>
+      <c r="R132" s="46"/>
+    </row>
+    <row r="133" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A133" s="66"/>
+      <c r="B133" s="83"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="40"/>
+      <c r="F133" s="92"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="48"/>
+      <c r="I133" s="48"/>
+      <c r="J133" s="49"/>
+      <c r="K133" s="50"/>
+      <c r="L133" s="45"/>
+      <c r="M133" s="46"/>
+      <c r="N133" s="95"/>
+      <c r="O133" s="47"/>
+      <c r="P133" s="46"/>
+      <c r="Q133" s="45"/>
+      <c r="R133" s="46"/>
+    </row>
+    <row r="134" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A134" s="66"/>
+      <c r="B134" s="83"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="40"/>
+      <c r="F134" s="92"/>
+      <c r="G134" s="48"/>
+      <c r="H134" s="48"/>
+      <c r="I134" s="48"/>
+      <c r="J134" s="49"/>
+      <c r="K134" s="50"/>
+      <c r="L134" s="45"/>
+      <c r="M134" s="46"/>
+      <c r="N134" s="95"/>
+      <c r="O134" s="47"/>
+      <c r="P134" s="46"/>
+      <c r="Q134" s="45"/>
+      <c r="R134" s="46"/>
+    </row>
+    <row r="135" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A135" s="66"/>
+      <c r="B135" s="83"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="40"/>
+      <c r="F135" s="92"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="48"/>
+      <c r="J135" s="49"/>
+      <c r="K135" s="50"/>
+      <c r="L135" s="45"/>
+      <c r="M135" s="46"/>
+      <c r="N135" s="95"/>
+      <c r="O135" s="47"/>
+      <c r="P135" s="46"/>
+      <c r="Q135" s="45"/>
+      <c r="R135" s="46"/>
+    </row>
+    <row r="136" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A136" s="66"/>
+      <c r="B136" s="83"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="40"/>
+      <c r="F136" s="92"/>
+      <c r="G136" s="48"/>
+      <c r="H136" s="48"/>
+      <c r="I136" s="48"/>
+      <c r="J136" s="49"/>
+      <c r="K136" s="50"/>
+      <c r="L136" s="45"/>
+      <c r="M136" s="46"/>
+      <c r="N136" s="95"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="46"/>
+      <c r="Q136" s="45"/>
+      <c r="R136" s="46"/>
+    </row>
+    <row r="137" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A137" s="66"/>
+      <c r="B137" s="83"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="40"/>
+      <c r="F137" s="92"/>
+      <c r="G137" s="48"/>
+      <c r="H137" s="48"/>
+      <c r="I137" s="48"/>
+      <c r="J137" s="49"/>
+      <c r="K137" s="50"/>
+      <c r="L137" s="45"/>
+      <c r="M137" s="46"/>
+      <c r="N137" s="95"/>
+      <c r="O137" s="47"/>
+      <c r="P137" s="46"/>
+      <c r="Q137" s="45"/>
+      <c r="R137" s="46"/>
+    </row>
+    <row r="138" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A138" s="66"/>
+      <c r="B138" s="83"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="40"/>
+      <c r="F138" s="92"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="48"/>
+      <c r="I138" s="48"/>
+      <c r="J138" s="49"/>
+      <c r="K138" s="50"/>
+      <c r="L138" s="45"/>
+      <c r="M138" s="46"/>
+      <c r="N138" s="95"/>
+      <c r="O138" s="47"/>
+      <c r="P138" s="46"/>
+      <c r="Q138" s="45"/>
+      <c r="R138" s="46"/>
+    </row>
+    <row r="139" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A139" s="66"/>
+      <c r="B139" s="83"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="40"/>
+      <c r="F139" s="92"/>
+      <c r="G139" s="48"/>
+      <c r="H139" s="48"/>
+      <c r="I139" s="48"/>
+      <c r="J139" s="49"/>
+      <c r="K139" s="50"/>
+      <c r="L139" s="45"/>
+      <c r="M139" s="46"/>
+      <c r="N139" s="95"/>
+      <c r="O139" s="47"/>
+      <c r="P139" s="46"/>
+      <c r="Q139" s="45"/>
+      <c r="R139" s="46"/>
+    </row>
+    <row r="140" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A140" s="66"/>
+      <c r="B140" s="83"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="92"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="48"/>
+      <c r="I140" s="48"/>
+      <c r="J140" s="49"/>
+      <c r="K140" s="50"/>
+      <c r="L140" s="45"/>
+      <c r="M140" s="46"/>
+      <c r="N140" s="95"/>
+      <c r="O140" s="47"/>
+      <c r="P140" s="46"/>
+      <c r="Q140" s="45"/>
+      <c r="R140" s="46"/>
+    </row>
+    <row r="141" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A141" s="66"/>
+      <c r="B141" s="83"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="41"/>
+      <c r="E141" s="40"/>
+      <c r="F141" s="92"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="48"/>
+      <c r="I141" s="48"/>
+      <c r="J141" s="49"/>
+      <c r="K141" s="50"/>
+      <c r="L141" s="45"/>
+      <c r="M141" s="46"/>
+      <c r="N141" s="95"/>
+      <c r="O141" s="47"/>
+      <c r="P141" s="46"/>
+      <c r="Q141" s="45"/>
+      <c r="R141" s="46"/>
+    </row>
+    <row r="142" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A142" s="66"/>
+      <c r="B142" s="83"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="41"/>
+      <c r="E142" s="40"/>
+      <c r="F142" s="92"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="48"/>
+      <c r="I142" s="48"/>
+      <c r="J142" s="49"/>
+      <c r="K142" s="50"/>
+      <c r="L142" s="45"/>
+      <c r="M142" s="46"/>
+      <c r="N142" s="95"/>
+      <c r="O142" s="47"/>
+      <c r="P142" s="46"/>
+      <c r="Q142" s="45"/>
+      <c r="R142" s="46"/>
+    </row>
+    <row r="143" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A143" s="66"/>
+      <c r="B143" s="83"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="40"/>
+      <c r="F143" s="92"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="48"/>
+      <c r="I143" s="48"/>
+      <c r="J143" s="49"/>
+      <c r="K143" s="50"/>
+      <c r="L143" s="45"/>
+      <c r="M143" s="46"/>
+      <c r="N143" s="95"/>
+      <c r="O143" s="47"/>
+      <c r="P143" s="46"/>
+      <c r="Q143" s="45"/>
+      <c r="R143" s="46"/>
+    </row>
+    <row r="144" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A144" s="66"/>
+      <c r="B144" s="83"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="41"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="92"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="48"/>
+      <c r="I144" s="48"/>
+      <c r="J144" s="49"/>
+      <c r="K144" s="50"/>
+      <c r="L144" s="45"/>
+      <c r="M144" s="46"/>
+      <c r="N144" s="95"/>
+      <c r="O144" s="47"/>
+      <c r="P144" s="46"/>
+      <c r="Q144" s="45"/>
+      <c r="R144" s="46"/>
+    </row>
+    <row r="145" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A145" s="66"/>
+      <c r="B145" s="83"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="41"/>
+      <c r="E145" s="40"/>
+      <c r="F145" s="92"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="48"/>
+      <c r="I145" s="48"/>
+      <c r="J145" s="49"/>
+      <c r="K145" s="50"/>
+      <c r="L145" s="45"/>
+      <c r="M145" s="46"/>
+      <c r="N145" s="95"/>
+      <c r="O145" s="47"/>
+      <c r="P145" s="46"/>
+      <c r="Q145" s="45"/>
+      <c r="R145" s="46"/>
+    </row>
+    <row r="146" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A146" s="66"/>
+      <c r="B146" s="83"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="40"/>
+      <c r="F146" s="92"/>
+      <c r="G146" s="48"/>
+      <c r="H146" s="48"/>
+      <c r="I146" s="48"/>
+      <c r="J146" s="49"/>
+      <c r="K146" s="50"/>
+      <c r="L146" s="45"/>
+      <c r="M146" s="46"/>
+      <c r="N146" s="95"/>
+      <c r="O146" s="47"/>
+      <c r="P146" s="46"/>
+      <c r="Q146" s="45"/>
+      <c r="R146" s="46"/>
+    </row>
+    <row r="147" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A147" s="66"/>
+      <c r="B147" s="83"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="40"/>
+      <c r="F147" s="92"/>
+      <c r="G147" s="48"/>
+      <c r="H147" s="48"/>
+      <c r="I147" s="48"/>
+      <c r="J147" s="49"/>
+      <c r="K147" s="50"/>
+      <c r="L147" s="45"/>
+      <c r="M147" s="46"/>
+      <c r="N147" s="95"/>
+      <c r="O147" s="47"/>
+      <c r="P147" s="46"/>
+      <c r="Q147" s="45"/>
+      <c r="R147" s="46"/>
+    </row>
+    <row r="148" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A148" s="66"/>
+      <c r="B148" s="83"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="41"/>
+      <c r="E148" s="40"/>
+      <c r="F148" s="92"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="48"/>
+      <c r="I148" s="48"/>
+      <c r="J148" s="49"/>
+      <c r="K148" s="50"/>
+      <c r="L148" s="45"/>
+      <c r="M148" s="46"/>
+      <c r="N148" s="95"/>
+      <c r="O148" s="47"/>
+      <c r="P148" s="46"/>
+      <c r="Q148" s="45"/>
+      <c r="R148" s="46"/>
+    </row>
+    <row r="149" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A149" s="66"/>
+      <c r="B149" s="83"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="40"/>
+      <c r="F149" s="92"/>
+      <c r="G149" s="48"/>
+      <c r="H149" s="48"/>
+      <c r="I149" s="48"/>
+      <c r="J149" s="49"/>
+      <c r="K149" s="50"/>
+      <c r="L149" s="45"/>
+      <c r="M149" s="46"/>
+      <c r="N149" s="95"/>
+      <c r="O149" s="47"/>
+      <c r="P149" s="46"/>
+      <c r="Q149" s="45"/>
+      <c r="R149" s="46"/>
+    </row>
+    <row r="150" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A150" s="66"/>
+      <c r="B150" s="83"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="92"/>
+      <c r="G150" s="48"/>
+      <c r="H150" s="48"/>
+      <c r="I150" s="48"/>
+      <c r="J150" s="49"/>
+      <c r="K150" s="50"/>
+      <c r="L150" s="45"/>
+      <c r="M150" s="46"/>
+      <c r="N150" s="95"/>
+      <c r="O150" s="47"/>
+      <c r="P150" s="46"/>
+      <c r="Q150" s="45"/>
+      <c r="R150" s="46"/>
+    </row>
+    <row r="151" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A151" s="66"/>
+      <c r="B151" s="83"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="41"/>
+      <c r="E151" s="40"/>
+      <c r="F151" s="92"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="48"/>
+      <c r="I151" s="48"/>
+      <c r="J151" s="49"/>
+      <c r="K151" s="50"/>
+      <c r="L151" s="45"/>
+      <c r="M151" s="46"/>
+      <c r="N151" s="95"/>
+      <c r="O151" s="47"/>
+      <c r="P151" s="46"/>
+      <c r="Q151" s="45"/>
+      <c r="R151" s="46"/>
+    </row>
+    <row r="152" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A152" s="66"/>
+      <c r="B152" s="83"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="92"/>
+      <c r="G152" s="48"/>
+      <c r="H152" s="48"/>
+      <c r="I152" s="48"/>
+      <c r="J152" s="49"/>
+      <c r="K152" s="50"/>
+      <c r="L152" s="45"/>
+      <c r="M152" s="46"/>
+      <c r="N152" s="95"/>
+      <c r="O152" s="47"/>
+      <c r="P152" s="46"/>
+      <c r="Q152" s="45"/>
+      <c r="R152" s="46"/>
+    </row>
+    <row r="153" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A153" s="66"/>
+      <c r="B153" s="83"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="40"/>
+      <c r="F153" s="92"/>
+      <c r="G153" s="48"/>
+      <c r="H153" s="48"/>
+      <c r="I153" s="48"/>
+      <c r="J153" s="49"/>
+      <c r="K153" s="50"/>
+      <c r="L153" s="45"/>
+      <c r="M153" s="46"/>
+      <c r="N153" s="95"/>
+      <c r="O153" s="47"/>
+      <c r="P153" s="46"/>
+      <c r="Q153" s="45"/>
+      <c r="R153" s="46"/>
+    </row>
+    <row r="154" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A154" s="66"/>
+      <c r="B154" s="83"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="41"/>
+      <c r="E154" s="40"/>
+      <c r="F154" s="92"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="48"/>
+      <c r="I154" s="48"/>
+      <c r="J154" s="49"/>
+      <c r="K154" s="50"/>
+      <c r="L154" s="45"/>
+      <c r="M154" s="46"/>
+      <c r="N154" s="95"/>
+      <c r="O154" s="47"/>
+      <c r="P154" s="46"/>
+      <c r="Q154" s="45"/>
+      <c r="R154" s="46"/>
+    </row>
+    <row r="155" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A155" s="66"/>
+      <c r="B155" s="83"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="40"/>
+      <c r="F155" s="92"/>
+      <c r="G155" s="48"/>
+      <c r="H155" s="48"/>
+      <c r="I155" s="48"/>
+      <c r="J155" s="49"/>
+      <c r="K155" s="50"/>
+      <c r="L155" s="45"/>
+      <c r="M155" s="46"/>
+      <c r="N155" s="95"/>
+      <c r="O155" s="47"/>
+      <c r="P155" s="46"/>
+      <c r="Q155" s="45"/>
+      <c r="R155" s="46"/>
+    </row>
+    <row r="156" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A156" s="66"/>
+      <c r="B156" s="83"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="41"/>
+      <c r="E156" s="40"/>
+      <c r="F156" s="92"/>
+      <c r="G156" s="48"/>
+      <c r="H156" s="48"/>
+      <c r="I156" s="48"/>
+      <c r="J156" s="49"/>
+      <c r="K156" s="50"/>
+      <c r="L156" s="45"/>
+      <c r="M156" s="46"/>
+      <c r="N156" s="95"/>
+      <c r="O156" s="47"/>
+      <c r="P156" s="46"/>
+      <c r="Q156" s="45"/>
+      <c r="R156" s="46"/>
+    </row>
+    <row r="157" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A157" s="66"/>
+      <c r="B157" s="83"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="40"/>
+      <c r="F157" s="92"/>
+      <c r="G157" s="48"/>
+      <c r="H157" s="48"/>
+      <c r="I157" s="48"/>
+      <c r="J157" s="49"/>
+      <c r="K157" s="50"/>
+      <c r="L157" s="45"/>
+      <c r="M157" s="46"/>
+      <c r="N157" s="95"/>
+      <c r="O157" s="47"/>
+      <c r="P157" s="46"/>
+      <c r="Q157" s="45"/>
+      <c r="R157" s="46"/>
+    </row>
+    <row r="158" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A158" s="66"/>
+      <c r="B158" s="83"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="40"/>
+      <c r="F158" s="92"/>
+      <c r="G158" s="48"/>
+      <c r="H158" s="48"/>
+      <c r="I158" s="48"/>
+      <c r="J158" s="49"/>
+      <c r="K158" s="50"/>
+      <c r="L158" s="45"/>
+      <c r="M158" s="46"/>
+      <c r="N158" s="95"/>
+      <c r="O158" s="47"/>
+      <c r="P158" s="46"/>
+      <c r="Q158" s="45"/>
+      <c r="R158" s="46"/>
+    </row>
+    <row r="159" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A159" s="66"/>
+      <c r="B159" s="83"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="41"/>
+      <c r="E159" s="40"/>
+      <c r="F159" s="92"/>
+      <c r="G159" s="48"/>
+      <c r="H159" s="48"/>
+      <c r="I159" s="48"/>
+      <c r="J159" s="49"/>
+      <c r="K159" s="50"/>
+      <c r="L159" s="45"/>
+      <c r="M159" s="46"/>
+      <c r="N159" s="95"/>
+      <c r="O159" s="47"/>
+      <c r="P159" s="46"/>
+      <c r="Q159" s="45"/>
+      <c r="R159" s="46"/>
+    </row>
+    <row r="160" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A160" s="66"/>
+      <c r="B160" s="83"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="41"/>
+      <c r="E160" s="40"/>
+      <c r="F160" s="92"/>
+      <c r="G160" s="48"/>
+      <c r="H160" s="48"/>
+      <c r="I160" s="48"/>
+      <c r="J160" s="49"/>
+      <c r="K160" s="50"/>
+      <c r="L160" s="45"/>
+      <c r="M160" s="46"/>
+      <c r="N160" s="95"/>
+      <c r="O160" s="47"/>
+      <c r="P160" s="46"/>
+      <c r="Q160" s="45"/>
+      <c r="R160" s="46"/>
+    </row>
+    <row r="161" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A161" s="66"/>
+      <c r="B161" s="83"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="41"/>
+      <c r="E161" s="40"/>
+      <c r="F161" s="92"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="48"/>
+      <c r="I161" s="48"/>
+      <c r="J161" s="49"/>
+      <c r="K161" s="50"/>
+      <c r="L161" s="45"/>
+      <c r="M161" s="46"/>
+      <c r="N161" s="95"/>
+      <c r="O161" s="47"/>
+      <c r="P161" s="46"/>
+      <c r="Q161" s="45"/>
+      <c r="R161" s="46"/>
+    </row>
+    <row r="162" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A162" s="66"/>
+      <c r="B162" s="83"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="41"/>
+      <c r="E162" s="40"/>
+      <c r="F162" s="92"/>
+      <c r="G162" s="48"/>
+      <c r="H162" s="48"/>
+      <c r="I162" s="48"/>
+      <c r="J162" s="49"/>
+      <c r="K162" s="50"/>
+      <c r="L162" s="45"/>
+      <c r="M162" s="46"/>
+      <c r="N162" s="95"/>
+      <c r="O162" s="47"/>
+      <c r="P162" s="46"/>
+      <c r="Q162" s="45"/>
+      <c r="R162" s="46"/>
+    </row>
+    <row r="163" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A163" s="66"/>
+      <c r="B163" s="83"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="41"/>
+      <c r="E163" s="40"/>
+      <c r="F163" s="92"/>
+      <c r="G163" s="48"/>
+      <c r="H163" s="48"/>
+      <c r="I163" s="48"/>
+      <c r="J163" s="49"/>
+      <c r="K163" s="50"/>
+      <c r="L163" s="45"/>
+      <c r="M163" s="46"/>
+      <c r="N163" s="95"/>
+      <c r="O163" s="47"/>
+      <c r="P163" s="46"/>
+      <c r="Q163" s="45"/>
+      <c r="R163" s="46"/>
+    </row>
+    <row r="164" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A164" s="66"/>
+      <c r="B164" s="83"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="41"/>
+      <c r="E164" s="40"/>
+      <c r="F164" s="92"/>
+      <c r="G164" s="48"/>
+      <c r="H164" s="48"/>
+      <c r="I164" s="48"/>
+      <c r="J164" s="49"/>
+      <c r="K164" s="50"/>
+      <c r="L164" s="45"/>
+      <c r="M164" s="46"/>
+      <c r="N164" s="95"/>
+      <c r="O164" s="47"/>
+      <c r="P164" s="46"/>
+      <c r="Q164" s="45"/>
+      <c r="R164" s="46"/>
+    </row>
+    <row r="165" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A165" s="66"/>
+      <c r="B165" s="83"/>
+      <c r="C165" s="40"/>
+      <c r="D165" s="41"/>
+      <c r="E165" s="40"/>
+      <c r="F165" s="92"/>
+      <c r="G165" s="48"/>
+      <c r="H165" s="48"/>
+      <c r="I165" s="48"/>
+      <c r="J165" s="49"/>
+      <c r="K165" s="50"/>
+      <c r="L165" s="45"/>
+      <c r="M165" s="46"/>
+      <c r="N165" s="95"/>
+      <c r="O165" s="47"/>
+      <c r="P165" s="46"/>
+      <c r="Q165" s="45"/>
+      <c r="R165" s="46"/>
+    </row>
+    <row r="166" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A166" s="66"/>
+      <c r="B166" s="83"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="41"/>
+      <c r="E166" s="40"/>
+      <c r="F166" s="92"/>
+      <c r="G166" s="48"/>
+      <c r="H166" s="48"/>
+      <c r="I166" s="48"/>
+      <c r="J166" s="49"/>
+      <c r="K166" s="50"/>
+      <c r="L166" s="45"/>
+      <c r="M166" s="46"/>
+      <c r="N166" s="95"/>
+      <c r="O166" s="47"/>
+      <c r="P166" s="46"/>
+      <c r="Q166" s="45"/>
+      <c r="R166" s="46"/>
+    </row>
+    <row r="167" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A167" s="66"/>
+      <c r="B167" s="83"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="41"/>
+      <c r="E167" s="40"/>
+      <c r="F167" s="92"/>
+      <c r="G167" s="48"/>
+      <c r="H167" s="48"/>
+      <c r="I167" s="48"/>
+      <c r="J167" s="49"/>
+      <c r="K167" s="50"/>
+      <c r="L167" s="45"/>
+      <c r="M167" s="46"/>
+      <c r="N167" s="95"/>
+      <c r="O167" s="47"/>
+      <c r="P167" s="46"/>
+      <c r="Q167" s="45"/>
+      <c r="R167" s="46"/>
+    </row>
+    <row r="168" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A168" s="66"/>
+      <c r="B168" s="83"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="40"/>
+      <c r="F168" s="92"/>
+      <c r="G168" s="48"/>
+      <c r="H168" s="48"/>
+      <c r="I168" s="48"/>
+      <c r="J168" s="49"/>
+      <c r="K168" s="50"/>
+      <c r="L168" s="45"/>
+      <c r="M168" s="46"/>
+      <c r="N168" s="95"/>
+      <c r="O168" s="47"/>
+      <c r="P168" s="46"/>
+      <c r="Q168" s="45"/>
+      <c r="R168" s="46"/>
+    </row>
+    <row r="169" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A169" s="66"/>
+      <c r="B169" s="83"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="41"/>
+      <c r="E169" s="40"/>
+      <c r="F169" s="92"/>
+      <c r="G169" s="48"/>
+      <c r="H169" s="48"/>
+      <c r="I169" s="48"/>
+      <c r="J169" s="49"/>
+      <c r="K169" s="50"/>
+      <c r="L169" s="45"/>
+      <c r="M169" s="46"/>
+      <c r="N169" s="95"/>
+      <c r="O169" s="47"/>
+      <c r="P169" s="46"/>
+      <c r="Q169" s="45"/>
+      <c r="R169" s="46"/>
+    </row>
+    <row r="170" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A170" s="66"/>
+      <c r="B170" s="83"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="41"/>
+      <c r="E170" s="40"/>
+      <c r="F170" s="92"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="48"/>
+      <c r="I170" s="48"/>
+      <c r="J170" s="49"/>
+      <c r="K170" s="50"/>
+      <c r="L170" s="45"/>
+      <c r="M170" s="46"/>
+      <c r="N170" s="95"/>
+      <c r="O170" s="47"/>
+      <c r="P170" s="46"/>
+      <c r="Q170" s="45"/>
+      <c r="R170" s="46"/>
+    </row>
+    <row r="171" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A171" s="66"/>
+      <c r="B171" s="83"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="41"/>
+      <c r="E171" s="40"/>
+      <c r="F171" s="92"/>
+      <c r="G171" s="48"/>
+      <c r="H171" s="48"/>
+      <c r="I171" s="48"/>
+      <c r="J171" s="49"/>
+      <c r="K171" s="50"/>
+      <c r="L171" s="45"/>
+      <c r="M171" s="46"/>
+      <c r="N171" s="95"/>
+      <c r="O171" s="47"/>
+      <c r="P171" s="46"/>
+      <c r="Q171" s="45"/>
+      <c r="R171" s="46"/>
+    </row>
+    <row r="172" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A172" s="66"/>
+      <c r="B172" s="83"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="41"/>
+      <c r="E172" s="40"/>
+      <c r="F172" s="92"/>
+      <c r="G172" s="48"/>
+      <c r="H172" s="48"/>
+      <c r="I172" s="48"/>
+      <c r="J172" s="49"/>
+      <c r="K172" s="50"/>
+      <c r="L172" s="45"/>
+      <c r="M172" s="46"/>
+      <c r="N172" s="95"/>
+      <c r="O172" s="47"/>
+      <c r="P172" s="46"/>
+      <c r="Q172" s="45"/>
+      <c r="R172" s="46"/>
+    </row>
+    <row r="173" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A173" s="66"/>
+      <c r="B173" s="83"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="41"/>
+      <c r="E173" s="40"/>
+      <c r="F173" s="92"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="48"/>
+      <c r="I173" s="48"/>
+      <c r="J173" s="49"/>
+      <c r="K173" s="50"/>
+      <c r="L173" s="45"/>
+      <c r="M173" s="46"/>
+      <c r="N173" s="95"/>
+      <c r="O173" s="47"/>
+      <c r="P173" s="46"/>
+      <c r="Q173" s="45"/>
+      <c r="R173" s="46"/>
+    </row>
+    <row r="174" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A174" s="66"/>
+      <c r="B174" s="83"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="41"/>
+      <c r="E174" s="40"/>
+      <c r="F174" s="92"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="48"/>
+      <c r="I174" s="48"/>
+      <c r="J174" s="49"/>
+      <c r="K174" s="50"/>
+      <c r="L174" s="45"/>
+      <c r="M174" s="46"/>
+      <c r="N174" s="95"/>
+      <c r="O174" s="47"/>
+      <c r="P174" s="46"/>
+      <c r="Q174" s="45"/>
+      <c r="R174" s="46"/>
+    </row>
+    <row r="175" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A175" s="66"/>
+      <c r="B175" s="83"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="41"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="92"/>
+      <c r="G175" s="48"/>
+      <c r="H175" s="48"/>
+      <c r="I175" s="48"/>
+      <c r="J175" s="49"/>
+      <c r="K175" s="50"/>
+      <c r="L175" s="45"/>
+      <c r="M175" s="46"/>
+      <c r="N175" s="95"/>
+      <c r="O175" s="47"/>
+      <c r="P175" s="46"/>
+      <c r="Q175" s="45"/>
+      <c r="R175" s="46"/>
+    </row>
+    <row r="176" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A176" s="66"/>
+      <c r="B176" s="83"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="41"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="92"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48"/>
+      <c r="I176" s="48"/>
+      <c r="J176" s="49"/>
+      <c r="K176" s="50"/>
+      <c r="L176" s="45"/>
+      <c r="M176" s="46"/>
+      <c r="N176" s="95"/>
+      <c r="O176" s="47"/>
+      <c r="P176" s="46"/>
+      <c r="Q176" s="45"/>
+      <c r="R176" s="46"/>
+    </row>
+    <row r="177" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A177" s="66"/>
+      <c r="B177" s="83"/>
+      <c r="C177" s="40"/>
+      <c r="D177" s="41"/>
+      <c r="E177" s="40"/>
+      <c r="F177" s="92"/>
+      <c r="G177" s="48"/>
+      <c r="H177" s="48"/>
+      <c r="I177" s="48"/>
+      <c r="J177" s="49"/>
+      <c r="K177" s="50"/>
+      <c r="L177" s="45"/>
+      <c r="M177" s="46"/>
+      <c r="N177" s="95"/>
+      <c r="O177" s="47"/>
+      <c r="P177" s="46"/>
+      <c r="Q177" s="45"/>
+      <c r="R177" s="46"/>
+    </row>
+    <row r="178" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A178" s="66"/>
+      <c r="B178" s="83"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="41"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="92"/>
+      <c r="G178" s="48"/>
+      <c r="H178" s="48"/>
+      <c r="I178" s="48"/>
+      <c r="J178" s="49"/>
+      <c r="K178" s="50"/>
+      <c r="L178" s="45"/>
+      <c r="M178" s="46"/>
+      <c r="N178" s="95"/>
+      <c r="O178" s="47"/>
+      <c r="P178" s="46"/>
+      <c r="Q178" s="45"/>
+      <c r="R178" s="46"/>
+    </row>
+    <row r="179" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A179" s="66"/>
+      <c r="B179" s="83"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="41"/>
+      <c r="E179" s="40"/>
+      <c r="F179" s="92"/>
+      <c r="G179" s="48"/>
+      <c r="H179" s="48"/>
+      <c r="I179" s="48"/>
+      <c r="J179" s="49"/>
+      <c r="K179" s="50"/>
+      <c r="L179" s="45"/>
+      <c r="M179" s="46"/>
+      <c r="N179" s="95"/>
+      <c r="O179" s="47"/>
+      <c r="P179" s="46"/>
+      <c r="Q179" s="45"/>
+      <c r="R179" s="46"/>
+    </row>
+    <row r="180" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A180" s="66"/>
+      <c r="B180" s="83"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="41"/>
+      <c r="E180" s="40"/>
+      <c r="F180" s="92"/>
+      <c r="G180" s="48"/>
+      <c r="H180" s="48"/>
+      <c r="I180" s="48"/>
+      <c r="J180" s="49"/>
+      <c r="K180" s="50"/>
+      <c r="L180" s="45"/>
+      <c r="M180" s="46"/>
+      <c r="N180" s="95"/>
+      <c r="O180" s="47"/>
+      <c r="P180" s="46"/>
+      <c r="Q180" s="45"/>
+      <c r="R180" s="46"/>
+    </row>
+    <row r="181" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A181" s="66"/>
+      <c r="B181" s="83"/>
+      <c r="C181" s="40"/>
+      <c r="D181" s="41"/>
+      <c r="E181" s="40"/>
+      <c r="F181" s="92"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="48"/>
+      <c r="I181" s="48"/>
+      <c r="J181" s="49"/>
+      <c r="K181" s="50"/>
+      <c r="L181" s="45"/>
+      <c r="M181" s="46"/>
+      <c r="N181" s="95"/>
+      <c r="O181" s="47"/>
+      <c r="P181" s="46"/>
+      <c r="Q181" s="45"/>
+      <c r="R181" s="46"/>
+    </row>
+    <row r="182" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A182" s="66"/>
+      <c r="B182" s="83"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="41"/>
+      <c r="E182" s="40"/>
+      <c r="F182" s="92"/>
+      <c r="G182" s="48"/>
+      <c r="H182" s="48"/>
+      <c r="I182" s="48"/>
+      <c r="J182" s="49"/>
+      <c r="K182" s="50"/>
+      <c r="L182" s="45"/>
+      <c r="M182" s="46"/>
+      <c r="N182" s="95"/>
+      <c r="O182" s="47"/>
+      <c r="P182" s="46"/>
+      <c r="Q182" s="45"/>
+      <c r="R182" s="46"/>
+    </row>
+    <row r="183" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A183" s="67"/>
+      <c r="B183" s="84"/>
+      <c r="C183" s="51"/>
+      <c r="D183" s="52"/>
+      <c r="E183" s="51"/>
+      <c r="F183" s="93"/>
+      <c r="G183" s="53"/>
+      <c r="H183" s="53"/>
+      <c r="I183" s="53"/>
+      <c r="J183" s="54"/>
+      <c r="K183" s="55"/>
+      <c r="L183" s="56"/>
+      <c r="M183" s="57"/>
+      <c r="N183" s="96"/>
+      <c r="O183" s="58"/>
+      <c r="P183" s="57"/>
+      <c r="Q183" s="56"/>
+      <c r="R183" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3721,41 +5374,44 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid concentration" error="1-30ng/µl is required for DNA samples. Leave blank for strains." prompt="0-30ng/µl is required for DNA samples. Leave blank for strains." sqref="D7:D102">
-      <formula1>0</formula1>
-      <formula2>30</formula2>
+  <dataValidations xWindow="359" yWindow="530" count="5">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid concentration" error="1-30ng/µl is required for DNA samples. Leave blank for strains." prompt="Ideally 1-30ng/µL (Qubit) or 10-100ng/µL (NanoDrop) is required for DNA samples. Leave blank for strains.  Please dilute your samples to 30ng/µL. Maximum concentration 1000ng/µL." sqref="D7:D183">
+      <formula1>1</formula1>
+      <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid volume" error="30-100µl volume is required for DNA samples. Leave blank for strains." prompt="30-100µl volume is required for DNA samples. Leave blank for strains." sqref="E7:E102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid sample collection day" error="Please enter a valid value (1-31) for sample collection day. Leave blank if unknown." prompt="Sample collection day (1-31). Leave blank if unknown." sqref="G7:G183">
+      <formula1>1</formula1>
+      <formula2>31</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid sample collection month" error="Please enter a valid sample collection month (1-12). Leave blank if unknown." prompt="Sample collection month (1-12). Leave blank if unknown." sqref="H7:H183">
+      <formula1>1</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid sample collection year" error="Please enter a valid sample collection year (1800-present year). Leave blank if unknown." prompt="Sample collection year. Leave blank if unknown." sqref="I7:I183">
+      <formula1>1800</formula1>
+      <formula2>2025</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid volume" error="30-100µl volume is required for DNA samples. Leave blank for strains." prompt="Minimum 30µl is required for DNA samples. Leave blank for strains." sqref="E7:E183">
       <formula1>30</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid sample collection day" error="Please enter a valid value (1-31) for sample collection day. Leave blank if unknown." prompt="Sample collection day (1-31). Leave blank if unknown." sqref="G7:G102">
-      <formula1>1</formula1>
-      <formula2>31</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid sample collection month" error="Please enter a valid sample collection month (1-12). Leave blank if unknown." prompt="Sample collection month (1-12). Leave blank if unknown." sqref="H7:H102">
-      <formula1>1</formula1>
-      <formula2>12</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid sample collection year" error="Please enter a valid sample collection year (1800-present year). Leave blank if unknown." prompt="Sample collection year. Leave blank if unknown." sqref="I7:I102">
-      <formula1>1800</formula1>
-      <formula2>2025</formula2>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="359" yWindow="530" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookups!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F7:F102</xm:sqref>
+          <xm:sqref>F7:F183</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -3769,13 +5425,13 @@
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5">
       <c r="B1" s="6"/>
       <c r="C1" t="s">
         <v>20</v>
@@ -3787,7 +5443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" s="6"/>
       <c r="C2" t="s">
         <v>21</v>
@@ -3799,7 +5455,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>22</v>
@@ -3811,7 +5467,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5">
       <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>23</v>
@@ -3823,7 +5479,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5">
       <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>24</v>
@@ -3835,7 +5491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5">
       <c r="B6" s="6"/>
       <c r="C6" t="s">
         <v>25</v>
@@ -3844,7 +5500,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5">
       <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>26</v>
@@ -3853,7 +5509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>27</v>
@@ -3862,7 +5518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5">
       <c r="B9" s="6"/>
       <c r="C9" t="s">
         <v>28</v>
@@ -3871,7 +5527,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5">
       <c r="B10" s="6"/>
       <c r="C10" t="s">
         <v>29</v>
@@ -3880,7 +5536,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5">
       <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>30</v>
@@ -3889,7 +5545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5">
       <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>31</v>
@@ -3898,7 +5554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5">
       <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>32</v>
@@ -3907,7 +5563,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5">
       <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>33</v>
@@ -3916,7 +5572,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5">
       <c r="B15" s="6"/>
       <c r="C15" t="s">
         <v>34</v>
@@ -3925,7 +5581,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5">
       <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>35</v>
@@ -3934,7 +5590,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>36</v>
@@ -3943,7 +5599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="B18" s="6"/>
       <c r="C18" t="s">
         <v>37</v>
@@ -3952,7 +5608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="B19" s="6"/>
       <c r="C19" t="s">
         <v>38</v>
@@ -3961,7 +5617,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>18</v>
@@ -3970,7 +5626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="B21" s="6"/>
       <c r="C21" t="s">
         <v>39</v>
@@ -3979,7 +5635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4">
       <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>40</v>
@@ -3988,7 +5644,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4">
       <c r="B23" s="6"/>
       <c r="C23" t="s">
         <v>41</v>
@@ -3997,7 +5653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4">
       <c r="B24" s="6"/>
       <c r="C24" t="s">
         <v>42</v>
@@ -4006,7 +5662,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4">
       <c r="B25" s="6"/>
       <c r="C25" t="s">
         <v>43</v>
@@ -4015,7 +5671,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="B26" s="6"/>
       <c r="C26" t="s">
         <v>44</v>
@@ -4024,7 +5680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="B27" s="6"/>
       <c r="C27" t="s">
         <v>45</v>
@@ -4033,7 +5689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28" s="6"/>
       <c r="C28" t="s">
         <v>46</v>
@@ -4042,7 +5698,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4">
       <c r="B29" s="6"/>
       <c r="C29" t="s">
         <v>47</v>
@@ -4051,7 +5707,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4">
       <c r="B30" s="6"/>
       <c r="C30" t="s">
         <v>19</v>
@@ -4060,7 +5716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4">
       <c r="B31" s="6"/>
       <c r="C31" t="s">
         <v>132</v>
@@ -4069,826 +5725,831 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4">
       <c r="B32" s="6"/>
       <c r="D32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4">
       <c r="B33" s="6"/>
       <c r="D33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4">
       <c r="B34" s="6"/>
       <c r="D34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4">
       <c r="B35" s="6"/>
       <c r="D35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4">
       <c r="B36" s="6"/>
       <c r="D36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4">
       <c r="B37" s="6"/>
       <c r="D37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4">
       <c r="B38" s="6"/>
       <c r="D38" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4">
       <c r="B39" s="6"/>
       <c r="D39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4">
       <c r="B40" s="6"/>
       <c r="D40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4">
       <c r="B41" s="6"/>
       <c r="D41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4">
       <c r="B42" s="6"/>
       <c r="D42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4">
       <c r="B43" s="6"/>
       <c r="D43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4">
       <c r="B44" s="6"/>
       <c r="D44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4">
       <c r="B45" s="6"/>
       <c r="D45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4">
       <c r="B46" s="6"/>
       <c r="D46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4">
       <c r="B47" s="6"/>
       <c r="D47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4">
       <c r="B48" s="6"/>
       <c r="D48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4">
       <c r="B49" s="6"/>
       <c r="D49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4">
       <c r="B50" s="6"/>
       <c r="D50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4">
       <c r="B51" s="6"/>
       <c r="D51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4">
       <c r="B52" s="6"/>
       <c r="D52" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4">
       <c r="B53" s="6"/>
       <c r="D53" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4">
       <c r="B54" s="6"/>
       <c r="D54" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4">
       <c r="B55" s="6"/>
       <c r="D55" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4">
       <c r="B56" s="6"/>
       <c r="D56" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4">
       <c r="B57" s="6"/>
       <c r="D57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4">
       <c r="B58" s="6"/>
       <c r="D58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:4">
       <c r="B59" s="6"/>
       <c r="D59" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4">
       <c r="B60" s="6"/>
       <c r="D60" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:4">
       <c r="B61" s="6"/>
       <c r="D61" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:4">
       <c r="B62" s="6"/>
       <c r="D62" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:4">
       <c r="B63" s="6"/>
       <c r="D63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:4">
       <c r="B64" s="6"/>
       <c r="D64" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4">
       <c r="B65" s="6"/>
       <c r="D65" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:4">
       <c r="B66" s="6"/>
       <c r="D66" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:4">
       <c r="B67" s="6"/>
       <c r="D67" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:4">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:4">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:4">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2">
       <c r="B106" s="6"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2">
       <c r="B107" s="6"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2">
       <c r="B108" s="6"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2">
       <c r="B109" s="6"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2">
       <c r="B110" s="6"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2">
       <c r="B111" s="6"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2">
       <c r="B112" s="6"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2">
       <c r="B113" s="6"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2">
       <c r="B115" s="6"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2">
       <c r="B116" s="6"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2">
       <c r="B117" s="6"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2">
       <c r="B118" s="6"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2">
       <c r="B120" s="6"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="6"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="6"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="6"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="6"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="6"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="6"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="6"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2">
       <c r="B129" s="6"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2">
       <c r="B130" s="6"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2">
       <c r="B131" s="6"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2">
       <c r="B132" s="6"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2">
       <c r="B133" s="6"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2">
       <c r="B134" s="6"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2">
       <c r="B135" s="6"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2">
       <c r="B136" s="6"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2">
       <c r="B137" s="6"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2">
       <c r="B139" s="6"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2">
       <c r="B140" s="6"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2">
       <c r="B141" s="6"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2">
       <c r="B142" s="6"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2">
       <c r="B143" s="6"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2">
       <c r="B144" s="6"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2">
       <c r="B160" s="6"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2">
       <c r="B161" s="6"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2">
       <c r="B162" s="6"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2">
       <c r="B163" s="6"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2">
       <c r="B164" s="6"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2">
       <c r="B165" s="6"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2">
       <c r="B166" s="6"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2">
       <c r="B167" s="6"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2">
       <c r="B169" s="6"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2">
       <c r="B170" s="6"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2">
       <c r="B172" s="6"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2">
       <c r="B173" s="6"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2">
       <c r="B174" s="6"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2">
       <c r="B177" s="6"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2">
       <c r="B178" s="6"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2">
       <c r="B179" s="6"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2">
       <c r="B180" s="6"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2">
       <c r="B181" s="6"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2">
       <c r="B182" s="6"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2">
       <c r="B183" s="6"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2">
       <c r="B184" s="6"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2">
       <c r="B185" s="6"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2">
       <c r="B186" s="6"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2">
       <c r="B187" s="6"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2">
       <c r="B189" s="6"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2">
       <c r="B190" s="6"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2">
       <c r="B191" s="6"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2">
       <c r="B192" s="6"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2">
       <c r="B193" s="6"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2">
       <c r="B194" s="6"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2">
       <c r="B195" s="6"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2">
       <c r="B196" s="6"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2">
       <c r="B197" s="6"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2">
       <c r="B198" s="6"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2">
       <c r="B199" s="6"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2">
       <c r="B200" s="6"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2">
       <c r="B201" s="6"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2">
       <c r="B202" s="6"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2">
       <c r="B203" s="6"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2">
       <c r="B205" s="6"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2">
       <c r="B206" s="6"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2">
       <c r="B207" s="6"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2">
       <c r="B208" s="6"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2">
       <c r="B209" s="6"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2">
       <c r="B210" s="6"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2">
       <c r="B211" s="6"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2">
       <c r="B212" s="6"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2">
       <c r="B213" s="6"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2">
       <c r="B214" s="6"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2">
       <c r="B215" s="6"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2">
       <c r="B216" s="6"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2">
       <c r="B217" s="6"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2">
       <c r="B218" s="6"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2">
       <c r="B219" s="6"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2">
       <c r="B220" s="6"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2">
       <c r="B221" s="6"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2">
       <c r="B222" s="6"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2">
       <c r="B223" s="6"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2">
       <c r="B224" s="6"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2">
       <c r="B225" s="6"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2">
       <c r="B226" s="6"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2">
       <c r="B227" s="6"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2">
       <c r="B228" s="6"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2">
       <c r="B229" s="6"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2">
       <c r="B230" s="6"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2">
       <c r="B231" s="6"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2">
       <c r="B232" s="6"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2">
       <c r="B233" s="6"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2">
       <c r="B234" s="6"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2">
       <c r="B235" s="6"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2">
       <c r="B236" s="6"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2">
       <c r="B237" s="6"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2">
       <c r="B238" s="6"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2">
       <c r="B239" s="6"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2">
       <c r="B240" s="6"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2">
       <c r="B241" s="6"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2">
       <c r="B242" s="6"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2">
       <c r="B243" s="6"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2">
       <c r="B244" s="6"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2">
       <c r="B245" s="6"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2">
       <c r="B246" s="6"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2">
       <c r="B247" s="6"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2">
       <c r="B248" s="6"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2">
       <c r="B249" s="6"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2">
       <c r="B250" s="6"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2">
       <c r="B251" s="6"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2">
       <c r="B252" s="6"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2">
       <c r="B253" s="6"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2">
       <c r="B254" s="6"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2">
       <c r="B255" s="6"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2">
       <c r="B256" s="6"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2">
       <c r="B257" s="6"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2">
       <c r="B258" s="6"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2">
       <c r="B259" s="6"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2">
       <c r="B260" s="6"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2">
       <c r="B261" s="6"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2">
       <c r="B262" s="6"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2">
       <c r="B263" s="6"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2">
       <c r="B264" s="6"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2">
       <c r="B265" s="6"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2">
       <c r="B266" s="6"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2">
       <c r="B267" s="6"/>
     </row>
-    <row r="5609" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5609" spans="2:2">
       <c r="B5609" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>